--- a/output_tables.xlsx
+++ b/output_tables.xlsx
@@ -10,6 +10,7 @@
     <sheet name="tbl1" sheetId="1" r:id="rId1"/>
     <sheet name="tbl2" sheetId="2" r:id="rId2"/>
     <sheet name="tbl3" sheetId="3" r:id="rId3"/>
+    <sheet name="tbl4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -353,7 +354,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -375,6 +376,11 @@
           <t>mean_median</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>est_pval</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -392,6 +398,11 @@
           <t>1.51 (3.51)</t>
         </is>
       </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>NA (NA)</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -409,6 +420,11 @@
           <t>1.52 (8.98)</t>
         </is>
       </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>-0.036 (0.515)</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -426,6 +442,11 @@
           <t>4.1 (7.8)</t>
         </is>
       </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>-0.003 (0.96)</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -443,6 +464,11 @@
           <t>13.46 (21.79)</t>
         </is>
       </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>-0.032 (0.558)</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -460,6 +486,11 @@
           <t>25.09 (26.42)</t>
         </is>
       </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.065 (0.239)</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -477,6 +508,11 @@
           <t>0.24 (0.71)</t>
         </is>
       </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.012 (0.827)</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -494,6 +530,11 @@
           <t>0.02 (0.17)</t>
         </is>
       </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>-0.04 (0.471)</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -511,6 +552,11 @@
           <t>3.87 (3.09)</t>
         </is>
       </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>-0.055 (0.316)</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -528,6 +574,11 @@
           <t>51.7 (31.54)</t>
         </is>
       </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>-0.016 (0.77)</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -543,6 +594,33 @@
       <c r="C11" t="inlineStr">
         <is>
           <t>51.13 (28.4)</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>-0.037 (0.506)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>SVI Overall Rank</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>332 (0, 99.94)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>51.7 (27.8)</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>-0.015 (0.784)</t>
         </is>
       </c>
     </row>
@@ -553,7 +631,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -584,416 +662,218 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Percent American Indian/Alaska Native</t>
+          <t>Vaccination</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>329 (0, 98.7)</t>
+          <t>332 (0, 14)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1.52 (8.98)</t>
+          <t>2.23 (3.75)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>-0.036 (0.515)</t>
+          <t>-0.109 (0.046)</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Percent Asian</t>
+          <t>Etiquette</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>329 (0, 56)</t>
+          <t>332 (0, 8)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>4.1 (7.8)</t>
+          <t>2.39 (3.1)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>-0.003 (0.96)</t>
+          <t>-0.096 (0.082)</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Percent Black or African American</t>
+          <t>Masking</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>329 (0, 99.5)</t>
+          <t>332 (0, 15)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>13.46 (21.79)</t>
+          <t>4.23 (5.05)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>-0.032 (0.558)</t>
+          <t>-0.084 (0.126)</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Percent Hispanic or Latino</t>
+          <t>Physical distancing</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>329 (0, 100)</t>
+          <t>332 (0, 6)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>25.09 (26.42)</t>
+          <t>1.38 (1.69)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.065 (0.239)</t>
+          <t>-0.068 (0.22)</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Percent Native Hawaiian or other Pacific Islander</t>
+          <t>Cohorting and/or staggering policy</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>329 (0, 9.7)</t>
+          <t>332 (0, 3)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.24 (0.71)</t>
+          <t>0.59 (1.13)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.012 (0.827)</t>
+          <t>-0.074 (0.177)</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Percent no race specified</t>
+          <t>Testing and/or screening</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>329 (0, 2.6)</t>
+          <t>332 (0, 8)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.02 (0.17)</t>
+          <t>1.56 (2.64)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>-0.04 (0.471)</t>
+          <t>-0.037 (0.505)</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Percent two or more races</t>
+          <t>Stay home</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>329 (0, 23.8)</t>
+          <t>332 (0, 9)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>3.87 (3.09)</t>
+          <t>2.39 (2.93)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>-0.055 (0.316)</t>
+          <t>-0.074 (0.181)</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Percent White</t>
+          <t>Trace and quarantine</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>329 (0, 97.7)</t>
+          <t>332 (0, 10)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>51.7 (31.54)</t>
+          <t>2.65 (3.45)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>-0.016 (0.77)</t>
+          <t>-0.089 (0.104)</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Percent free and/or reduced lunch eligible</t>
+          <t>Cleaning</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>322 (0.4, 100)</t>
+          <t>332 (0, 6)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>51.13 (28.4)</t>
+          <t>1.38 (2.1)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>-0.037 (0.506)</t>
+          <t>-0.058 (0.291)</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Vaccination</t>
+          <t>Ventilation</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>332 (0, 14)</t>
+          <t>332 (0, 11)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2.23 (3.75)</t>
+          <t>1.9 (3)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
-        <is>
-          <t>-0.109 (0.046)</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Etiquette</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>332 (0, 8)</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>2.39 (3.1)</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>-0.096 (0.082)</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Masking</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>332 (0, 15)</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>4.23 (5.05)</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>-0.084 (0.126)</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Physical distancing</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>332 (0, 6)</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>1.38 (1.69)</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>-0.068 (0.22)</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Cohorting and/or staggering policy</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>332 (0, 3)</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>0.59 (1.13)</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>-0.074 (0.177)</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Testing and/or screening</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>332 (0, 8)</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>1.56 (2.64)</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>-0.037 (0.505)</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Stay home</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>332 (0, 9)</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>2.39 (2.93)</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>-0.074 (0.181)</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Trace and quarantine</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>332 (0, 10)</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>2.65 (3.45)</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>-0.089 (0.104)</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Cleaning</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>332 (0, 6)</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>1.38 (2.1)</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>-0.058 (0.291)</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Ventilation</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>332 (0, 11)</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>1.9 (3)</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
         <is>
           <t>-0.072 (0.192)</t>
         </is>
@@ -1025,7 +905,332 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>mean_median</t>
+          <t>mean_stdev</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>No policy_mean</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Has policy_mean</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>t_estimate</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Vaccination</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>332 (0, 1)</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>0.33 (0.47)</t>
+        </is>
+      </c>
+      <c r="D2">
+        <v>1.764</v>
+      </c>
+      <c r="E2">
+        <v>0.994</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.77 (0.016)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Etiquette</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>332 (0, 1)</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0.43 (0.5)</t>
+        </is>
+      </c>
+      <c r="D3">
+        <v>1.782</v>
+      </c>
+      <c r="E3">
+        <v>1.147</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.635 (0.075)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Masking</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>332 (0, 1)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0.48 (0.5)</t>
+        </is>
+      </c>
+      <c r="D4">
+        <v>1.739</v>
+      </c>
+      <c r="E4">
+        <v>1.257</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.482 (0.202)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Physical distancing</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>332 (0, 1)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0.45 (0.5)</t>
+        </is>
+      </c>
+      <c r="D5">
+        <v>1.672</v>
+      </c>
+      <c r="E5">
+        <v>1.306</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.366 (0.316)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Cohorting and/or staggering policy</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>332 (0, 1)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0.23 (0.42)</t>
+        </is>
+      </c>
+      <c r="D6">
+        <v>1.654</v>
+      </c>
+      <c r="E6">
+        <v>1.02</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.634 (0.044)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Testing and/or screening</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>332 (0, 1)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0.3 (0.46)</t>
+        </is>
+      </c>
+      <c r="D7">
+        <v>1.594</v>
+      </c>
+      <c r="E7">
+        <v>1.304</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.29 (0.427)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Stay home</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>332 (0, 1)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0.42 (0.49)</t>
+        </is>
+      </c>
+      <c r="D8">
+        <v>1.752</v>
+      </c>
+      <c r="E8">
+        <v>1.167</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.585 (0.098)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Trace and quarantine</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>332 (0, 1)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0.42 (0.5)</t>
+        </is>
+      </c>
+      <c r="D9">
+        <v>1.771</v>
+      </c>
+      <c r="E9">
+        <v>1.148</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.623 (0.079)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Cleaning</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>332 (0, 1)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0.37 (0.48)</t>
+        </is>
+      </c>
+      <c r="D10">
+        <v>1.669</v>
+      </c>
+      <c r="E10">
+        <v>1.231</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.438 (0.188)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Ventilation</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>332 (0, 1)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0.38 (0.49)</t>
+        </is>
+      </c>
+      <c r="D11">
+        <v>1.706</v>
+      </c>
+      <c r="E11">
+        <v>1.177</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.529 (0.117)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Construct</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>min_max</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>mean_stdev</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">

--- a/output_tables.xlsx
+++ b/output_tables.xlsx
@@ -354,7 +354,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -407,218 +407,240 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Percent American Indian/Alaska Native</t>
+          <t>Change in county COVID-19 case rate</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>329 (0, 98.7)</t>
+          <t>332 (-13.67, 14747.43)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1.52 (8.98)</t>
+          <t>850.14 (2407.81)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>-0.036 (0.515)</t>
+          <t>-0.004 (0.946)</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Percent Asian</t>
+          <t>Percent American Indian/Alaska Native</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>329 (0, 56)</t>
+          <t>329 (0, 98.7)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>4.1 (7.8)</t>
+          <t>1.52 (8.98)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>-0.003 (0.96)</t>
+          <t>-0.036 (0.515)</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Percent Black or African American</t>
+          <t>Percent Asian</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>329 (0, 99.5)</t>
+          <t>329 (0, 56)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>13.46 (21.79)</t>
+          <t>4.1 (7.8)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>-0.032 (0.558)</t>
+          <t>-0.003 (0.96)</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Percent Hispanic or Latino</t>
+          <t>Percent Black or African American</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>329 (0, 100)</t>
+          <t>329 (0, 99.5)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>25.09 (26.42)</t>
+          <t>13.46 (21.79)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.065 (0.239)</t>
+          <t>-0.032 (0.558)</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Percent Native Hawaiian or other Pacific Islander</t>
+          <t>Percent Hispanic or Latino</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>329 (0, 9.7)</t>
+          <t>329 (0, 100)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.24 (0.71)</t>
+          <t>25.09 (26.42)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.012 (0.827)</t>
+          <t>0.065 (0.239)</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Percent no race specified</t>
+          <t>Percent Native Hawaiian or other Pacific Islander</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>329 (0, 2.6)</t>
+          <t>329 (0, 9.7)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.02 (0.17)</t>
+          <t>0.24 (0.71)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>-0.04 (0.471)</t>
+          <t>0.012 (0.827)</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Percent two or more races</t>
+          <t>Percent no race specified</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>329 (0, 23.8)</t>
+          <t>329 (0, 2.6)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>3.87 (3.09)</t>
+          <t>0.02 (0.17)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>-0.055 (0.316)</t>
+          <t>-0.04 (0.471)</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Percent White</t>
+          <t>Percent two or more races</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>329 (0, 97.7)</t>
+          <t>329 (0, 23.8)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>51.7 (31.54)</t>
+          <t>3.87 (3.09)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>-0.016 (0.77)</t>
+          <t>-0.055 (0.316)</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Percent free and/or reduced lunch eligible</t>
+          <t>Percent White</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>322 (0.4, 100)</t>
+          <t>329 (0, 97.7)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>51.13 (28.4)</t>
+          <t>51.7 (31.54)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>-0.037 (0.506)</t>
+          <t>-0.016 (0.77)</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>Percent free and/or reduced lunch eligible</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>322 (0.4, 100)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>51.13 (28.4)</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>-0.037 (0.506)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
           <t>SVI Overall Rank</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B13" t="inlineStr">
         <is>
           <t>332 (0, 99.94)</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>51.7 (27.8)</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>-0.015 (0.784)</t>
         </is>

--- a/output_tables.xlsx
+++ b/output_tables.xlsx
@@ -11,6 +11,8 @@
     <sheet name="tbl2" sheetId="2" r:id="rId2"/>
     <sheet name="tbl3" sheetId="3" r:id="rId3"/>
     <sheet name="tbl4" sheetId="4" r:id="rId4"/>
+    <sheet name="tbl5" sheetId="5" r:id="rId5"/>
+    <sheet name="tbl6" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -1548,4 +1550,304 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Construct</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Percent iterations among top 5 predictors</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>State</t>
+        </is>
+      </c>
+      <c r="B2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Region</t>
+        </is>
+      </c>
+      <c r="B3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>SVI Overall Rank</t>
+        </is>
+      </c>
+      <c r="B4">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Percent Black or African American</t>
+        </is>
+      </c>
+      <c r="B5">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Derivedtotalenrolled</t>
+        </is>
+      </c>
+      <c r="B6">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Percent free and/or reduced lunch eligible</t>
+        </is>
+      </c>
+      <c r="B7">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Percent two or more races</t>
+        </is>
+      </c>
+      <c r="B8">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Percent American Indian/Alaska Native</t>
+        </is>
+      </c>
+      <c r="B9">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Locale</t>
+        </is>
+      </c>
+      <c r="B10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Change in county COVID-19 case rate</t>
+        </is>
+      </c>
+      <c r="B11">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Percent Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="B12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Percent Native Hawaiian or other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Percent White</t>
+        </is>
+      </c>
+      <c r="B14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Percent Asian</t>
+        </is>
+      </c>
+      <c r="B15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Percent no race specified</t>
+        </is>
+      </c>
+      <c r="B16">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Construct</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Percent iterations among top 5 predictors</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Vaccination</t>
+        </is>
+      </c>
+      <c r="B2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Testing and/or screening</t>
+        </is>
+      </c>
+      <c r="B3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Physical distancing</t>
+        </is>
+      </c>
+      <c r="B4">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Cohorting and/or staggering policy</t>
+        </is>
+      </c>
+      <c r="B5">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Etiquette</t>
+        </is>
+      </c>
+      <c r="B6">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Trace and quarantine</t>
+        </is>
+      </c>
+      <c r="B7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Masking</t>
+        </is>
+      </c>
+      <c r="B8">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Ventilation</t>
+        </is>
+      </c>
+      <c r="B9">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Cleaning</t>
+        </is>
+      </c>
+      <c r="B10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Stay home</t>
+        </is>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/output_tables.xlsx
+++ b/output_tables.xlsx
@@ -1568,7 +1568,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Percent iterations among top 5 predictors</t>
+          <t>Percent</t>
         </is>
       </c>
     </row>
@@ -1655,17 +1655,17 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Locale</t>
+          <t>Change in county COVID-19 case rate</t>
         </is>
       </c>
       <c r="B10">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Change in county COVID-19 case rate</t>
+          <t>Locale</t>
         </is>
       </c>
       <c r="B11">
@@ -1719,7 +1719,7 @@
         </is>
       </c>
       <c r="B16">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1743,7 +1743,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Percent iterations among top 5 predictors</t>
+          <t>Percent</t>
         </is>
       </c>
     </row>
@@ -1774,67 +1774,67 @@
         </is>
       </c>
       <c r="B4">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Cohorting and/or staggering policy</t>
+          <t>Etiquette</t>
         </is>
       </c>
       <c r="B5">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Etiquette</t>
+          <t>Trace and quarantine</t>
         </is>
       </c>
       <c r="B6">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Trace and quarantine</t>
+          <t>Masking</t>
         </is>
       </c>
       <c r="B7">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Masking</t>
+          <t>Ventilation</t>
         </is>
       </c>
       <c r="B8">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Ventilation</t>
+          <t>Cleaning</t>
         </is>
       </c>
       <c r="B9">
-        <v>16</v>
+        <v>7.000000000000001</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Cleaning</t>
+          <t>Cohorting and/or staggering policy</t>
         </is>
       </c>
       <c r="B10">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">

--- a/output_tables.xlsx
+++ b/output_tables.xlsx
@@ -13,6 +13,7 @@
     <sheet name="tbl4" sheetId="4" r:id="rId4"/>
     <sheet name="tbl5" sheetId="5" r:id="rId5"/>
     <sheet name="tbl6" sheetId="6" r:id="rId6"/>
+    <sheet name="tbl7" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -387,17 +388,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Change in COVID-19 case rate</t>
+          <t>Change in school COVID-19 case rate</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>332 (-9.67, 44.22)</t>
+          <t>347 (-9.21, 15.55)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1.51 (3.51)</t>
+          <t>1.3 (2.4)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -414,17 +415,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>332 (-13.67, 14747.43)</t>
+          <t>347 (-13.67, 14747.43)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>850.14 (2407.81)</t>
+          <t>824.75 (2360.51)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>-0.004 (0.946)</t>
+          <t>0.014 (0.801)</t>
         </is>
       </c>
     </row>
@@ -436,17 +437,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>329 (0, 98.7)</t>
+          <t>343 (0, 97.9)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.52 (8.98)</t>
+          <t>1.55 (8.86)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>-0.036 (0.515)</t>
+          <t>-0.04 (0.463)</t>
         </is>
       </c>
     </row>
@@ -458,17 +459,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>329 (0, 56)</t>
+          <t>343 (0, 55.1)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>4.1 (7.8)</t>
+          <t>4.03 (7.75)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>-0.003 (0.96)</t>
+          <t>0.018 (0.737)</t>
         </is>
       </c>
     </row>
@@ -480,17 +481,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>329 (0, 99.5)</t>
+          <t>343 (0, 97.9)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>13.46 (21.79)</t>
+          <t>13.24 (21.49)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>-0.032 (0.558)</t>
+          <t>-0.007 (0.89)</t>
         </is>
       </c>
     </row>
@@ -502,17 +503,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>329 (0, 100)</t>
+          <t>343 (0, 100)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>25.09 (26.42)</t>
+          <t>25.57 (26.72)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.065 (0.239)</t>
+          <t>0.1 (0.065)</t>
         </is>
       </c>
     </row>
@@ -524,17 +525,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>329 (0, 9.7)</t>
+          <t>343 (0, 12.4)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.24 (0.71)</t>
+          <t>0.26 (0.82)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.012 (0.827)</t>
+          <t>-0.035 (0.517)</t>
         </is>
       </c>
     </row>
@@ -546,17 +547,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>329 (0, 2.6)</t>
+          <t>343 (0, 2.7)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.02 (0.17)</t>
+          <t>0.02 (0.16)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>-0.04 (0.471)</t>
+          <t>-0.069 (0.2)</t>
         </is>
       </c>
     </row>
@@ -568,17 +569,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>329 (0, 23.8)</t>
+          <t>343 (0, 33.6)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>3.87 (3.09)</t>
+          <t>4.11 (3.44)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>-0.055 (0.316)</t>
+          <t>-0.019 (0.732)</t>
         </is>
       </c>
     </row>
@@ -590,39 +591,39 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>329 (0, 97.7)</t>
+          <t>343 (0, 98.9)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>51.7 (31.54)</t>
+          <t>51.21 (31.75)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>-0.016 (0.77)</t>
+          <t>-0.069 (0.202)</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Percent free and/or reduced lunch eligible</t>
+          <t>Percent free lunch qualified</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>322 (0.4, 100)</t>
+          <t>306 (0.01, 1)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>51.13 (28.4)</t>
+          <t>0.47 (0.28)</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>-0.037 (0.506)</t>
+          <t>0.001 (0.987)</t>
         </is>
       </c>
     </row>
@@ -634,17 +635,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>332 (0, 99.94)</t>
+          <t>347 (0, 99.94)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>51.7 (27.8)</t>
+          <t>51.39 (27.91)</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>-0.015 (0.784)</t>
+          <t>0.03 (0.581)</t>
         </is>
       </c>
     </row>
@@ -654,261 +655,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Construct</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>min_max</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>mean_median</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>est_pval</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Vaccination</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>332 (0, 14)</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>2.23 (3.75)</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>-0.109 (0.046)</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Etiquette</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>332 (0, 8)</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>2.39 (3.1)</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>-0.096 (0.082)</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Masking</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>332 (0, 15)</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>4.23 (5.05)</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>-0.084 (0.126)</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Physical distancing</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>332 (0, 6)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>1.38 (1.69)</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>-0.068 (0.22)</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Cohorting and/or staggering policy</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>332 (0, 3)</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>0.59 (1.13)</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>-0.074 (0.177)</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Testing and/or screening</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>332 (0, 8)</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>1.56 (2.64)</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>-0.037 (0.505)</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Stay home</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>332 (0, 9)</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>2.39 (2.93)</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>-0.074 (0.181)</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Trace and quarantine</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>332 (0, 10)</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>2.65 (3.45)</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>-0.089 (0.104)</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Cleaning</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>332 (0, 6)</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>1.38 (2.1)</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>-0.058 (0.291)</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Ventilation</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>332 (0, 11)</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>1.9 (3)</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>-0.072 (0.192)</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F11"/>
   <sheetViews>
@@ -951,152 +697,152 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Vaccination</t>
+          <t>Vaccination offered</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>332 (0, 1)</t>
+          <t>347 (0, 1)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.33 (0.47)</t>
+          <t>0.12 (0.32)</t>
         </is>
       </c>
       <c r="D2">
-        <v>1.764</v>
+        <v>1.345</v>
       </c>
       <c r="E2">
-        <v>0.994</v>
+        <v>0.944</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.77 (0.016)</t>
+          <t>0.401 (0.156)</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Etiquette</t>
+          <t>Universal masking requirements</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>332 (0, 1)</t>
+          <t>347 (0, 1)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.43 (0.5)</t>
+          <t>0.26 (0.44)</t>
         </is>
       </c>
       <c r="D3">
-        <v>1.782</v>
+        <v>1.405</v>
       </c>
       <c r="E3">
-        <v>1.147</v>
+        <v>0.991</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.635 (0.075)</t>
+          <t>0.413 (0.123)</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Masking</t>
+          <t>Physical distancing</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>332 (0, 1)</t>
+          <t>347 (0, 1)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.48 (0.5)</t>
+          <t>0.26 (0.44)</t>
         </is>
       </c>
       <c r="D4">
-        <v>1.739</v>
+        <v>1.445</v>
       </c>
       <c r="E4">
-        <v>1.257</v>
+        <v>0.88</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.482 (0.202)</t>
+          <t>0.566 (0.022)</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Physical distancing</t>
+          <t>Screening and testing for students</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>332 (0, 1)</t>
+          <t>347 (0, 1)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.45 (0.5)</t>
+          <t>0.14 (0.35)</t>
         </is>
       </c>
       <c r="D5">
-        <v>1.672</v>
+        <v>1.361</v>
       </c>
       <c r="E5">
-        <v>1.306</v>
+        <v>0.927</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.366 (0.316)</t>
+          <t>0.435 (0.186)</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Cohorting and/or staggering policy</t>
+          <t>Staying home when sick</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>332 (0, 1)</t>
+          <t>347 (0, 1)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.23 (0.42)</t>
+          <t>0.4 (0.49)</t>
         </is>
       </c>
       <c r="D6">
-        <v>1.654</v>
+        <v>1.447</v>
       </c>
       <c r="E6">
-        <v>1.02</v>
+        <v>1.08</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.634 (0.044)</t>
+          <t>0.367 (0.145)</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Testing and/or screening</t>
+          <t>Contact tracing</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>332 (0, 1)</t>
+          <t>347 (0, 1)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1105,126 +851,126 @@
         </is>
       </c>
       <c r="D7">
-        <v>1.594</v>
+        <v>1.407</v>
       </c>
       <c r="E7">
-        <v>1.304</v>
+        <v>1.046</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0.29 (0.427)</t>
+          <t>0.361 (0.138)</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Stay home</t>
+          <t>Quarantining</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>332 (0, 1)</t>
+          <t>347 (0, 1)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.42 (0.49)</t>
+          <t>0.31 (0.46)</t>
         </is>
       </c>
       <c r="D8">
-        <v>1.752</v>
+        <v>1.445</v>
       </c>
       <c r="E8">
-        <v>1.167</v>
+        <v>0.979</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0.585 (0.098)</t>
+          <t>0.466 (0.059)</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Trace and quarantine</t>
+          <t>Cleaning</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>332 (0, 1)</t>
+          <t>347 (0, 1)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.42 (0.5)</t>
+          <t>0.25 (0.43)</t>
         </is>
       </c>
       <c r="D9">
-        <v>1.771</v>
+        <v>1.338</v>
       </c>
       <c r="E9">
-        <v>1.148</v>
+        <v>1.181</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0.623 (0.079)</t>
+          <t>0.157 (0.53)</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Cleaning</t>
+          <t>HEPA filters</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>332 (0, 1)</t>
+          <t>347 (0, 1)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.37 (0.48)</t>
+          <t>0.04 (0.2)</t>
         </is>
       </c>
       <c r="D10">
-        <v>1.669</v>
+        <v>1.32</v>
       </c>
       <c r="E10">
-        <v>1.231</v>
+        <v>0.833</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0.438 (0.188)</t>
+          <t>0.487 (0.302)</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Ventilation</t>
+          <t>HVAC systems</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>332 (0, 1)</t>
+          <t>347 (0, 1)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.38 (0.49)</t>
+          <t>0.32 (0.47)</t>
         </is>
       </c>
       <c r="D11">
-        <v>1.706</v>
+        <v>1.507</v>
       </c>
       <c r="E11">
-        <v>1.177</v>
+        <v>0.862</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0.529 (0.117)</t>
+          <t>0.645 (0.007)</t>
         </is>
       </c>
     </row>
@@ -1233,9 +979,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1249,302 +995,168 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>min_max</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>mean_stdev</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>No policy_mean</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Has policy_mean</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>t_estimate</t>
+          <t>Percent</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>75th percentile Vaccination</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>332 (0, 1)</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>0.27 (0.45)</t>
-        </is>
-      </c>
-      <c r="D2">
-        <v>1.74</v>
-      </c>
-      <c r="E2">
-        <v>0.879</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0.861 (0.005)</t>
-        </is>
+          <t>State</t>
+        </is>
+      </c>
+      <c r="B2">
+        <v>100</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>75th percentile Etiquette</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>332 (0, 1)</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>0.24 (0.43)</t>
-        </is>
-      </c>
-      <c r="D3">
-        <v>1.674</v>
-      </c>
-      <c r="E3">
-        <v>0.989</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0.685 (0.028)</t>
-        </is>
+          <t>Region</t>
+        </is>
+      </c>
+      <c r="B3">
+        <v>98</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>75th percentile Masking</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>332 (0, 1)</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>0.27 (0.45)</t>
-        </is>
-      </c>
-      <c r="D4">
-        <v>1.709</v>
-      </c>
-      <c r="E4">
-        <v>0.972</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0.736 (0.023)</t>
-        </is>
+          <t>Percent two or more races</t>
+        </is>
+      </c>
+      <c r="B4">
+        <v>46</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>75th percentile Physical distancing</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>332 (0, 1)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>0.3 (0.46)</t>
-        </is>
-      </c>
-      <c r="D5">
-        <v>1.721</v>
-      </c>
-      <c r="E5">
-        <v>1.017</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0.704 (0.026)</t>
-        </is>
+          <t>Percent free lunch qualified</t>
+        </is>
+      </c>
+      <c r="B5">
+        <v>40</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>75th percentile Cohorting and/or staggering policy</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>332 (1, 1)</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>1 (0)</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NA (NA)</t>
-        </is>
+          <t>Change in county COVID-19 case rate</t>
+        </is>
+      </c>
+      <c r="B6">
+        <v>34</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>75th percentile Testing and/or screening</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>332 (0, 1)</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>0.25 (0.44)</t>
-        </is>
-      </c>
-      <c r="D7">
-        <v>1.565</v>
-      </c>
-      <c r="E7">
-        <v>1.336</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0.229 (0.554)</t>
-        </is>
+          <t>Percent White</t>
+        </is>
+      </c>
+      <c r="B7">
+        <v>30</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>75th percentile Stay home</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>332 (0, 1)</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>0.35 (0.48)</t>
-        </is>
-      </c>
-      <c r="D8">
-        <v>1.674</v>
-      </c>
-      <c r="E8">
-        <v>1.2</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0.474 (0.165)</t>
-        </is>
+          <t>Percent American Indian/Alaska Native</t>
+        </is>
+      </c>
+      <c r="B8">
+        <v>27</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>75th percentile Trace and quarantine</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>332 (0, 1)</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>0.31 (0.46)</t>
-        </is>
-      </c>
-      <c r="D9">
-        <v>1.687</v>
-      </c>
-      <c r="E9">
-        <v>1.106</v>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0.581 (0.075)</t>
-        </is>
+          <t>SVI Overall Rank</t>
+        </is>
+      </c>
+      <c r="B9">
+        <v>26</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>75th percentile Cleaning</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>332 (0, 1)</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>0.28 (0.45)</t>
-        </is>
-      </c>
-      <c r="D10">
-        <v>1.637</v>
-      </c>
-      <c r="E10">
-        <v>1.171</v>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>0.467 (0.137)</t>
-        </is>
+          <t>Percent Black or African American</t>
+        </is>
+      </c>
+      <c r="B10">
+        <v>22</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>75th percentile Ventilation</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>332 (0, 1)</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>0.27 (0.44)</t>
-        </is>
-      </c>
-      <c r="D11">
-        <v>1.7</v>
-      </c>
-      <c r="E11">
-        <v>0.98</v>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>0.72 (0.023)</t>
-        </is>
+          <t>Percent Native Hawaiian or other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="B11">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Percent Asian</t>
+        </is>
+      </c>
+      <c r="B12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>School enrollment</t>
+        </is>
+      </c>
+      <c r="B13">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Locale</t>
+        </is>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>School level</t>
+        </is>
+      </c>
+      <c r="B15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Percent Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="B16">
+        <v>7.000000000000001</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Percent no race specified</t>
+        </is>
+      </c>
+      <c r="B17">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1552,182 +1164,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Construct</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Percent</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>State</t>
-        </is>
-      </c>
-      <c r="B2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Region</t>
-        </is>
-      </c>
-      <c r="B3">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>SVI Overall Rank</t>
-        </is>
-      </c>
-      <c r="B4">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Percent Black or African American</t>
-        </is>
-      </c>
-      <c r="B5">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Derivedtotalenrolled</t>
-        </is>
-      </c>
-      <c r="B6">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Percent free and/or reduced lunch eligible</t>
-        </is>
-      </c>
-      <c r="B7">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Percent two or more races</t>
-        </is>
-      </c>
-      <c r="B8">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Percent American Indian/Alaska Native</t>
-        </is>
-      </c>
-      <c r="B9">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Change in county COVID-19 case rate</t>
-        </is>
-      </c>
-      <c r="B10">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Locale</t>
-        </is>
-      </c>
-      <c r="B11">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Percent Hispanic or Latino</t>
-        </is>
-      </c>
-      <c r="B12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Percent Native Hawaiian or other Pacific Islander</t>
-        </is>
-      </c>
-      <c r="B13">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Percent White</t>
-        </is>
-      </c>
-      <c r="B14">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Percent Asian</t>
-        </is>
-      </c>
-      <c r="B15">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Percent no race specified</t>
-        </is>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B11"/>
   <sheetViews>
@@ -1750,101 +1187,512 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Vaccination</t>
+          <t>Contact tracing</t>
         </is>
       </c>
       <c r="B2">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Testing and/or screening</t>
+          <t>HVAC systems</t>
         </is>
       </c>
       <c r="B3">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Physical distancing</t>
+          <t>Cleaning</t>
         </is>
       </c>
       <c r="B4">
-        <v>47</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Etiquette</t>
+          <t>Screening and testing for students</t>
         </is>
       </c>
       <c r="B5">
-        <v>37</v>
+        <v>56.99999999999999</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Trace and quarantine</t>
+          <t>Quarantining</t>
         </is>
       </c>
       <c r="B6">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Masking</t>
+          <t>Universal masking requirements</t>
         </is>
       </c>
       <c r="B7">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Ventilation</t>
+          <t>Physical distancing</t>
         </is>
       </c>
       <c r="B8">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Cleaning</t>
+          <t>Vaccination offered</t>
         </is>
       </c>
       <c r="B9">
-        <v>7.000000000000001</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Cohorting and/or staggering policy</t>
+          <t>HEPA filters</t>
         </is>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Stay home</t>
+          <t>Staying home when sick</t>
         </is>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Coefficient (95% interval)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Vaccination offered</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>-0.075 (-0.942, 0.748)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Universal masking requirements</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>-0.083 (-0.673, 0.517)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Physical distancing</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>-0.498 (-1.09, 0.06)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Screening and testing for students</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>-0.273 (-0.987, 0.413)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Staying home when sick</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>-0.373 (-0.882, 0.21)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Contact tracing</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>-0.305 (-0.896, 0.257)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Quarantining</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>-0.467 (-1.019, 0.116)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Cleaning</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>-0.137 (-0.698, 0.428)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>HEPA filters</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>0.261 (-1.186, 1.887)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>HVAC systems</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>-0.347 (-0.862, 0.228)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Coefficient (95% interval)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Intercept</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1.332 (0.543, 2.073)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Vaccination offered</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0.212 (-0.947, 1.257)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Universal masking requirements</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>0.291 (-0.478, 1.005)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Physical distancing</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>-0.422 (-1.24, 0.384)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Screening and testing for students</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>-0.076 (-1.018, 0.843)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Staying home when sick</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>-0.048 (-0.962, 0.95)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Contact tracing</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>-0.03 (-0.799, 0.669)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Quarantining</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>-0.43 (-1.4, 0.545)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Cleaning</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>0.293 (-0.466, 1.127)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>HEPA filters</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>0.529 (-0.906, 1.983)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>HVAC systems</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>-0.162 (-1.01, 0.588)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Percent two or more races</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>0.148 (-0.136, 0.427)</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Percent free lunch qualified</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>-0.328 (-0.641, -0.003)</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Change in county COVID-19 case rate</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>-0.008 (-0.45, 0.402)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Coefficient (95% interval)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Intercept</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1.176 (0.409, 1.869)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Percent two or more races</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0.167 (-0.12, 0.442)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Percent free lunch qualified</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>-0.335 (-0.633, -0.042)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Change in county COVID-19 case rate</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0.013 (-0.432, 0.376)</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/output_tables.xlsx
+++ b/output_tables.xlsx
@@ -14,6 +14,7 @@
     <sheet name="tbl5" sheetId="5" r:id="rId5"/>
     <sheet name="tbl6" sheetId="6" r:id="rId6"/>
     <sheet name="tbl7" sheetId="7" r:id="rId7"/>
+    <sheet name="tbl8" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -357,7 +358,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -376,7 +377,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>mean_median</t>
+          <t>mean_stdev</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -393,17 +394,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>347 (-9.21, 15.55)</t>
+          <t>342 (-6.25, 7.81)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1.3 (2.4)</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>NA (NA)</t>
+          <t>1.16 (1.87)</t>
         </is>
       </c>
     </row>
@@ -415,17 +411,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>347 (-13.67, 14747.43)</t>
+          <t>342 (-13.67, 14747.43)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>824.75 (2360.51)</t>
+          <t>826.27 (2375.13)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.014 (0.801)</t>
+          <t>0.004 (0.937)</t>
         </is>
       </c>
     </row>
@@ -437,17 +433,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>343 (0, 97.9)</t>
+          <t>338 (0, 98.7)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.55 (8.86)</t>
+          <t>1.64 (9.21)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>-0.04 (0.463)</t>
+          <t>-0.046 (0.401)</t>
         </is>
       </c>
     </row>
@@ -459,17 +455,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>343 (0, 55.1)</t>
+          <t>338 (0, 56)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>4.03 (7.75)</t>
+          <t>4.04 (7.73)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.018 (0.737)</t>
+          <t>0.017 (0.754)</t>
         </is>
       </c>
     </row>
@@ -481,17 +477,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>343 (0, 97.9)</t>
+          <t>338 (0, 99.5)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>13.24 (21.49)</t>
+          <t>13.31 (21.69)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>-0.007 (0.89)</t>
+          <t>0.038 (0.489)</t>
         </is>
       </c>
     </row>
@@ -503,17 +499,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>343 (0, 100)</t>
+          <t>338 (0, 100)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>25.57 (26.72)</t>
+          <t>24.97 (26.59)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.1 (0.065)</t>
+          <t>0.066 (0.229)</t>
         </is>
       </c>
     </row>
@@ -525,17 +521,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>343 (0, 12.4)</t>
+          <t>338 (0, 9.7)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.26 (0.82)</t>
+          <t>0.24 (0.7)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>-0.035 (0.517)</t>
+          <t>-0.041 (0.453)</t>
         </is>
       </c>
     </row>
@@ -547,17 +543,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>343 (0, 2.7)</t>
+          <t>338 (0, 2.6)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.02 (0.16)</t>
+          <t>0.02 (0.17)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>-0.069 (0.2)</t>
+          <t>-0.047 (0.386)</t>
         </is>
       </c>
     </row>
@@ -569,17 +565,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>343 (0, 33.6)</t>
+          <t>338 (0, 23.8)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>4.11 (3.44)</t>
+          <t>3.86 (3.09)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>-0.019 (0.732)</t>
+          <t>-0.004 (0.936)</t>
         </is>
       </c>
     </row>
@@ -591,39 +587,39 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>343 (0, 98.9)</t>
+          <t>338 (0, 100)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>51.21 (31.75)</t>
+          <t>51.92 (32)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>-0.069 (0.202)</t>
+          <t>-0.07 (0.202)</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Percent free lunch qualified</t>
+          <t>Percent free and reduced lunch</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>306 (0.01, 1)</t>
+          <t>331 (0.4, 100)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0.47 (0.28)</t>
+          <t>51.31 (28.3)</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.001 (0.987)</t>
+          <t>0.027 (0.63)</t>
         </is>
       </c>
     </row>
@@ -635,17 +631,167 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>347 (0, 99.94)</t>
+          <t>342 (0, 99.94)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>51.39 (27.91)</t>
+          <t>51.31 (27.83)</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.03 (0.581)</t>
+          <t>0.068 (0.21)</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Midwest</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>55 (-2.87, 4)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>0.43 (1.33)</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Northeast</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>94 (-2.93, 7.67)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>1.47 (2.02)</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>South</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>120 (-6.25, 7.5)</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>1.68 (2.06)</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>West</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>73 (-1.16, 7.81)</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0.46 (1.24)</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>City</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>83 (-2.6, 6.74)</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>1.06 (1.78)</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>92 (-6.25, 7.5)</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>1.17 (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Suburb</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>119 (-2.93, 7.81)</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1.3 (1.93)</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Town</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>48 (-2.87, 5.17)</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>0.97 (1.65)</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Region</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Locale</t>
         </is>
       </c>
     </row>
@@ -702,7 +848,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>347 (0, 1)</t>
+          <t>342 (0, 1)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -711,14 +857,14 @@
         </is>
       </c>
       <c r="D2">
-        <v>1.345</v>
+        <v>1.193</v>
       </c>
       <c r="E2">
-        <v>0.944</v>
+        <v>0.91</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.401 (0.156)</t>
+          <t>0.283 (0.276)</t>
         </is>
       </c>
     </row>
@@ -730,7 +876,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>347 (0, 1)</t>
+          <t>342 (0, 1)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -739,14 +885,14 @@
         </is>
       </c>
       <c r="D3">
-        <v>1.405</v>
+        <v>1.217</v>
       </c>
       <c r="E3">
-        <v>0.991</v>
+        <v>0.997</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.413 (0.123)</t>
+          <t>0.22 (0.358)</t>
         </is>
       </c>
     </row>
@@ -758,7 +904,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>347 (0, 1)</t>
+          <t>342 (0, 1)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -767,14 +913,14 @@
         </is>
       </c>
       <c r="D4">
-        <v>1.445</v>
+        <v>1.261</v>
       </c>
       <c r="E4">
-        <v>0.88</v>
+        <v>0.878</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.566 (0.022)</t>
+          <t>0.383 (0.08)</t>
         </is>
       </c>
     </row>
@@ -786,23 +932,23 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>347 (0, 1)</t>
+          <t>342 (0, 1)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.14 (0.35)</t>
+          <t>0.15 (0.35)</t>
         </is>
       </c>
       <c r="D5">
-        <v>1.361</v>
+        <v>1.194</v>
       </c>
       <c r="E5">
-        <v>0.927</v>
+        <v>0.958</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.435 (0.186)</t>
+          <t>0.236 (0.454)</t>
         </is>
       </c>
     </row>
@@ -814,23 +960,23 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>347 (0, 1)</t>
+          <t>342 (0, 1)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.4 (0.49)</t>
+          <t>0.41 (0.49)</t>
         </is>
       </c>
       <c r="D6">
-        <v>1.447</v>
+        <v>1.257</v>
       </c>
       <c r="E6">
-        <v>1.08</v>
+        <v>1.018</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.367 (0.145)</t>
+          <t>0.24 (0.244)</t>
         </is>
       </c>
     </row>
@@ -842,7 +988,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>347 (0, 1)</t>
+          <t>342 (0, 1)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -851,14 +997,14 @@
         </is>
       </c>
       <c r="D7">
-        <v>1.407</v>
+        <v>1.216</v>
       </c>
       <c r="E7">
-        <v>1.046</v>
+        <v>1.032</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0.361 (0.138)</t>
+          <t>0.184 (0.383)</t>
         </is>
       </c>
     </row>
@@ -870,23 +1016,23 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>347 (0, 1)</t>
+          <t>342 (0, 1)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.31 (0.46)</t>
+          <t>0.32 (0.47)</t>
         </is>
       </c>
       <c r="D8">
-        <v>1.445</v>
+        <v>1.236</v>
       </c>
       <c r="E8">
-        <v>0.979</v>
+        <v>0.997</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0.466 (0.059)</t>
+          <t>0.239 (0.27)</t>
         </is>
       </c>
     </row>
@@ -898,23 +1044,23 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>347 (0, 1)</t>
+          <t>342 (0, 1)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.25 (0.43)</t>
+          <t>0.25 (0.44)</t>
         </is>
       </c>
       <c r="D9">
-        <v>1.338</v>
+        <v>1.151</v>
       </c>
       <c r="E9">
-        <v>1.181</v>
+        <v>1.186</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0.157 (0.53)</t>
+          <t>-0.035 (0.875)</t>
         </is>
       </c>
     </row>
@@ -926,23 +1072,23 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>347 (0, 1)</t>
+          <t>342 (0, 1)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.04 (0.2)</t>
+          <t>0.04 (0.21)</t>
         </is>
       </c>
       <c r="D10">
-        <v>1.32</v>
+        <v>1.176</v>
       </c>
       <c r="E10">
-        <v>0.833</v>
+        <v>0.802</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0.487 (0.302)</t>
+          <t>0.375 (0.4)</t>
         </is>
       </c>
     </row>
@@ -954,23 +1100,23 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>347 (0, 1)</t>
+          <t>342 (0, 1)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.32 (0.47)</t>
+          <t>0.33 (0.47)</t>
         </is>
       </c>
       <c r="D11">
-        <v>1.507</v>
+        <v>1.316</v>
       </c>
       <c r="E11">
-        <v>0.862</v>
+        <v>0.84</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0.645 (0.007)</t>
+          <t>0.476 (0.019)</t>
         </is>
       </c>
     </row>
@@ -1002,7 +1148,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>State</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="B2">
@@ -1012,11 +1158,11 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Region</t>
+          <t>State</t>
         </is>
       </c>
       <c r="B3">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4">
@@ -1026,127 +1172,127 @@
         </is>
       </c>
       <c r="B4">
-        <v>46</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Percent free lunch qualified</t>
+          <t>Percent Asian</t>
         </is>
       </c>
       <c r="B5">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Change in county COVID-19 case rate</t>
+          <t>Percent White</t>
         </is>
       </c>
       <c r="B6">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Percent White</t>
+          <t>Percent free and reduced lunch</t>
         </is>
       </c>
       <c r="B7">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Percent American Indian/Alaska Native</t>
+          <t>SVI Overall Rank</t>
         </is>
       </c>
       <c r="B8">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>SVI Overall Rank</t>
+          <t>Percent Black or African American</t>
         </is>
       </c>
       <c r="B9">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Percent Black or African American</t>
+          <t>School level</t>
         </is>
       </c>
       <c r="B10">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Percent Native Hawaiian or other Pacific Islander</t>
+          <t>School enrollment</t>
         </is>
       </c>
       <c r="B11">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Percent Asian</t>
+          <t>Percent Hispanic or Latino</t>
         </is>
       </c>
       <c r="B12">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>School enrollment</t>
+          <t>Change in county COVID-19 case rate</t>
         </is>
       </c>
       <c r="B13">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Locale</t>
+          <t>Percent American Indian/Alaska Native</t>
         </is>
       </c>
       <c r="B14">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>School level</t>
+          <t>Percent Native Hawaiian or other Pacific Islander</t>
         </is>
       </c>
       <c r="B15">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Percent Hispanic or Latino</t>
+          <t>Locale</t>
         </is>
       </c>
       <c r="B16">
-        <v>7.000000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1187,21 +1333,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Contact tracing</t>
+          <t>HVAC systems</t>
         </is>
       </c>
       <c r="B2">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HVAC systems</t>
+          <t>Contact tracing</t>
         </is>
       </c>
       <c r="B3">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4">
@@ -1211,7 +1357,7 @@
         </is>
       </c>
       <c r="B4">
-        <v>77</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5">
@@ -1221,47 +1367,47 @@
         </is>
       </c>
       <c r="B5">
-        <v>56.99999999999999</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Quarantining</t>
+          <t>Universal masking requirements</t>
         </is>
       </c>
       <c r="B6">
-        <v>25</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Universal masking requirements</t>
+          <t>Physical distancing</t>
         </is>
       </c>
       <c r="B7">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Physical distancing</t>
+          <t>Vaccination offered</t>
         </is>
       </c>
       <c r="B8">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Vaccination offered</t>
+          <t>Staying home when sick</t>
         </is>
       </c>
       <c r="B9">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -1271,17 +1417,17 @@
         </is>
       </c>
       <c r="B10">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Staying home when sick</t>
+          <t>Quarantining</t>
         </is>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1317,7 +1463,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>-0.075 (-0.942, 0.748)</t>
+          <t>-0.08 (-0.69, 0.53)</t>
         </is>
       </c>
     </row>
@@ -1329,7 +1475,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>-0.083 (-0.673, 0.517)</t>
+          <t>-0.13 (-0.54, 0.27)</t>
         </is>
       </c>
     </row>
@@ -1341,7 +1487,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>-0.498 (-1.09, 0.06)</t>
+          <t>-0.38 (-0.83, 0.03)</t>
         </is>
       </c>
     </row>
@@ -1353,7 +1499,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>-0.273 (-0.987, 0.413)</t>
+          <t>-0.35 (-0.84, 0.2)</t>
         </is>
       </c>
     </row>
@@ -1365,7 +1511,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>-0.373 (-0.882, 0.21)</t>
+          <t>-0.33 (-0.71, 0.03)</t>
         </is>
       </c>
     </row>
@@ -1377,7 +1523,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>-0.305 (-0.896, 0.257)</t>
+          <t>-0.17 (-0.54, 0.22)</t>
         </is>
       </c>
     </row>
@@ -1389,7 +1535,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>-0.467 (-1.019, 0.116)</t>
+          <t>-0.29 (-0.72, 0.08)</t>
         </is>
       </c>
     </row>
@@ -1401,7 +1547,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>-0.137 (-0.698, 0.428)</t>
+          <t>-0.09 (-0.53, 0.31)</t>
         </is>
       </c>
     </row>
@@ -1413,7 +1559,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0.261 (-1.186, 1.887)</t>
+          <t>0.03 (-0.98, 0.96)</t>
         </is>
       </c>
     </row>
@@ -1425,7 +1571,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>-0.347 (-0.862, 0.228)</t>
+          <t>-0.38 (-0.78, 0.02)</t>
         </is>
       </c>
     </row>
@@ -1436,7 +1582,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1462,7 +1608,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1.332 (0.543, 2.073)</t>
+          <t>1.04 (0.32, 1.78)</t>
         </is>
       </c>
     </row>
@@ -1474,7 +1620,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.212 (-0.947, 1.257)</t>
+          <t>0.33 (-0.44, 1.1)</t>
         </is>
       </c>
     </row>
@@ -1486,7 +1632,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.291 (-0.478, 1.005)</t>
+          <t>0.14 (-0.35, 0.68)</t>
         </is>
       </c>
     </row>
@@ -1498,7 +1644,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>-0.422 (-1.24, 0.384)</t>
+          <t>-0.28 (-0.84, 0.3)</t>
         </is>
       </c>
     </row>
@@ -1510,7 +1656,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>-0.076 (-1.018, 0.843)</t>
+          <t>-0.31 (-0.99, 0.36)</t>
         </is>
       </c>
     </row>
@@ -1522,7 +1668,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>-0.048 (-0.962, 0.95)</t>
+          <t>-0.2 (-0.85, 0.47)</t>
         </is>
       </c>
     </row>
@@ -1534,7 +1680,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>-0.03 (-0.799, 0.669)</t>
+          <t>0.13 (-0.42, 0.69)</t>
         </is>
       </c>
     </row>
@@ -1546,7 +1692,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>-0.43 (-1.4, 0.545)</t>
+          <t>-0.06 (-0.7, 0.56)</t>
         </is>
       </c>
     </row>
@@ -1558,7 +1704,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0.293 (-0.466, 1.127)</t>
+          <t>0.33 (-0.23, 0.82)</t>
         </is>
       </c>
     </row>
@@ -1570,7 +1716,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0.529 (-0.906, 1.983)</t>
+          <t>0.25 (-0.6, 1.29)</t>
         </is>
       </c>
     </row>
@@ -1582,7 +1728,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>-0.162 (-1.01, 0.588)</t>
+          <t>-0.4 (-1.01, 0.17)</t>
         </is>
       </c>
     </row>
@@ -1594,31 +1740,103 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0.148 (-0.136, 0.427)</t>
+          <t>0.24 (0.04, 0.46)</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Percent free lunch qualified</t>
+          <t>Percent Asian</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>-0.328 (-0.641, -0.003)</t>
+          <t>0.01 (-0.21, 0.23)</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>Percent White</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>-0.15 (-0.5, 0.26)</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Percent free and reduced lunch</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>-0.25 (-0.57, 0.1)</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>SVI Overall Rank</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>0.04 (-0.2, 0.28)</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Percent Black or African American</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>-0.07 (-0.35, 0.18)</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>High school</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>0.31 (-0.15, 0.8)</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Middle school</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>0.27 (-0.19, 0.72)</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
           <t>Change in county COVID-19 case rate</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>-0.008 (-0.45, 0.402)</t>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>-0.08 (-0.45, 0.3)</t>
         </is>
       </c>
     </row>
@@ -1629,7 +1847,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1655,43 +1873,332 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1.176 (0.409, 1.869)</t>
+          <t>1.07 (0.33, 1.76)</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Percent two or more races</t>
+          <t>Physical distancing</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.167 (-0.12, 0.442)</t>
+          <t>-0.2 (-0.73, 0.31)</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Percent free lunch qualified</t>
+          <t>Staying home when sick</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>-0.335 (-0.633, -0.042)</t>
+          <t>-0.09 (-0.67, 0.39)</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>HVAC systems</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>-0.21 (-0.82, 0.36)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Percent two or more races</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>0.25 (0.04, 0.46)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Percent Asian</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>0.01 (-0.2, 0.21)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Percent White</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>-0.19 (-0.52, 0.15)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Percent free and reduced lunch</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>-0.28 (-0.6, 0.03)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>SVI Overall Rank</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>0.03 (-0.18, 0.26)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Percent Black or African American</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>-0.08 (-0.33, 0.21)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>High school</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>0.3 (-0.17, 0.8)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Middle school</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>0.27 (-0.21, 0.73)</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
           <t>Change in county COVID-19 case rate</t>
         </is>
       </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>-0.09 (-0.45, 0.22)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Coefficient (95% interval)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Intercept</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1.02 (0.34, 1.67)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>One strategy</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0.15 (-0.41, 0.77)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Two strategies</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>-0.23 (-0.79, 0.29)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Three strategies</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.013 (-0.432, 0.376)</t>
+          <t>-0.53 (-1.07, -0.05)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Percent two or more races</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>0.24 (0.03, 0.46)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Percent Asian</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>0.01 (-0.22, 0.22)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Percent White</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>-0.19 (-0.55, 0.19)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Percent free and reduced lunch</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>-0.28 (-0.58, 0.05)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>SVI Overall Rank</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>0.03 (-0.2, 0.27)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Percent Black or African American</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>-0.07 (-0.35, 0.16)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>High school</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>0.28 (-0.18, 0.74)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Middle school</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>0.24 (-0.18, 0.71)</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Change in county COVID-19 case rate</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>-0.09 (-0.41, 0.3)</t>
         </is>
       </c>
     </row>

--- a/output_tables.xlsx
+++ b/output_tables.xlsx
@@ -1437,7 +1437,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1454,6 +1454,11 @@
           <t>Coefficient (95% interval)</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>p-value</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1466,6 +1471,9 @@
           <t>-0.08 (-0.69, 0.53)</t>
         </is>
       </c>
+      <c r="C2">
+        <v>0.79</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1478,6 +1486,9 @@
           <t>-0.13 (-0.54, 0.27)</t>
         </is>
       </c>
+      <c r="C3">
+        <v>0.5600000000000001</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1490,6 +1501,9 @@
           <t>-0.38 (-0.83, 0.03)</t>
         </is>
       </c>
+      <c r="C4">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1502,6 +1516,9 @@
           <t>-0.35 (-0.84, 0.2)</t>
         </is>
       </c>
+      <c r="C5">
+        <v>0.18</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1514,6 +1531,9 @@
           <t>-0.33 (-0.71, 0.03)</t>
         </is>
       </c>
+      <c r="C6">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1526,6 +1546,9 @@
           <t>-0.17 (-0.54, 0.22)</t>
         </is>
       </c>
+      <c r="C7">
+        <v>0.41</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1538,6 +1561,9 @@
           <t>-0.29 (-0.72, 0.08)</t>
         </is>
       </c>
+      <c r="C8">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1550,6 +1576,9 @@
           <t>-0.09 (-0.53, 0.31)</t>
         </is>
       </c>
+      <c r="C9">
+        <v>0.67</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1562,6 +1591,9 @@
           <t>0.03 (-0.98, 0.96)</t>
         </is>
       </c>
+      <c r="C10">
+        <v>0.95</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1573,6 +1605,9 @@
         <is>
           <t>-0.38 (-0.78, 0.02)</t>
         </is>
+      </c>
+      <c r="C11">
+        <v>0.06</v>
       </c>
     </row>
   </sheetData>
@@ -1582,7 +1617,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1599,6 +1634,11 @@
           <t>Coefficient (95% interval)</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>p-value</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1611,6 +1651,9 @@
           <t>1.04 (0.32, 1.78)</t>
         </is>
       </c>
+      <c r="C2">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1623,6 +1666,9 @@
           <t>0.33 (-0.44, 1.1)</t>
         </is>
       </c>
+      <c r="C3">
+        <v>0.34</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1635,6 +1681,9 @@
           <t>0.14 (-0.35, 0.68)</t>
         </is>
       </c>
+      <c r="C4">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1647,6 +1696,9 @@
           <t>-0.28 (-0.84, 0.3)</t>
         </is>
       </c>
+      <c r="C5">
+        <v>0.32</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1659,6 +1711,9 @@
           <t>-0.31 (-0.99, 0.36)</t>
         </is>
       </c>
+      <c r="C6">
+        <v>0.32</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1671,6 +1726,9 @@
           <t>-0.2 (-0.85, 0.47)</t>
         </is>
       </c>
+      <c r="C7">
+        <v>0.54</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1683,6 +1741,9 @@
           <t>0.13 (-0.42, 0.69)</t>
         </is>
       </c>
+      <c r="C8">
+        <v>0.64</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1695,6 +1756,9 @@
           <t>-0.06 (-0.7, 0.56)</t>
         </is>
       </c>
+      <c r="C9">
+        <v>0.86</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1707,6 +1771,9 @@
           <t>0.33 (-0.23, 0.82)</t>
         </is>
       </c>
+      <c r="C10">
+        <v>0.24</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1719,6 +1786,9 @@
           <t>0.25 (-0.6, 1.29)</t>
         </is>
       </c>
+      <c r="C11">
+        <v>0.62</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1731,6 +1801,9 @@
           <t>-0.4 (-1.01, 0.17)</t>
         </is>
       </c>
+      <c r="C12">
+        <v>0.19</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1743,6 +1816,9 @@
           <t>0.24 (0.04, 0.46)</t>
         </is>
       </c>
+      <c r="C13">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1755,6 +1831,9 @@
           <t>0.01 (-0.21, 0.23)</t>
         </is>
       </c>
+      <c r="C14">
+        <v>0.9399999999999999</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1767,6 +1846,9 @@
           <t>-0.15 (-0.5, 0.26)</t>
         </is>
       </c>
+      <c r="C15">
+        <v>0.42</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1779,6 +1861,9 @@
           <t>-0.25 (-0.57, 0.1)</t>
         </is>
       </c>
+      <c r="C16">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1791,6 +1876,9 @@
           <t>0.04 (-0.2, 0.28)</t>
         </is>
       </c>
+      <c r="C17">
+        <v>0.76</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1803,6 +1891,9 @@
           <t>-0.07 (-0.35, 0.18)</t>
         </is>
       </c>
+      <c r="C18">
+        <v>0.59</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1815,6 +1906,9 @@
           <t>0.31 (-0.15, 0.8)</t>
         </is>
       </c>
+      <c r="C19">
+        <v>0.21</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1827,6 +1921,9 @@
           <t>0.27 (-0.19, 0.72)</t>
         </is>
       </c>
+      <c r="C20">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1838,6 +1935,9 @@
         <is>
           <t>-0.08 (-0.45, 0.3)</t>
         </is>
+      </c>
+      <c r="C21">
+        <v>0.62</v>
       </c>
     </row>
   </sheetData>
@@ -1847,7 +1947,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1864,6 +1964,11 @@
           <t>Coefficient (95% interval)</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>p-value</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1876,6 +1981,9 @@
           <t>1.07 (0.33, 1.76)</t>
         </is>
       </c>
+      <c r="C2">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1888,6 +1996,9 @@
           <t>-0.2 (-0.73, 0.31)</t>
         </is>
       </c>
+      <c r="C3">
+        <v>0.44</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1900,6 +2011,9 @@
           <t>-0.09 (-0.67, 0.39)</t>
         </is>
       </c>
+      <c r="C4">
+        <v>0.73</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1912,6 +2026,9 @@
           <t>-0.21 (-0.82, 0.36)</t>
         </is>
       </c>
+      <c r="C5">
+        <v>0.43</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1924,6 +2041,9 @@
           <t>0.25 (0.04, 0.46)</t>
         </is>
       </c>
+      <c r="C6">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1936,6 +2056,9 @@
           <t>0.01 (-0.2, 0.21)</t>
         </is>
       </c>
+      <c r="C7">
+        <v>0.95</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1948,6 +2071,9 @@
           <t>-0.19 (-0.52, 0.15)</t>
         </is>
       </c>
+      <c r="C8">
+        <v>0.31</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1960,6 +2086,9 @@
           <t>-0.28 (-0.6, 0.03)</t>
         </is>
       </c>
+      <c r="C9">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1972,6 +2101,9 @@
           <t>0.03 (-0.18, 0.26)</t>
         </is>
       </c>
+      <c r="C10">
+        <v>0.79</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1984,6 +2116,9 @@
           <t>-0.08 (-0.33, 0.21)</t>
         </is>
       </c>
+      <c r="C11">
+        <v>0.5600000000000001</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1996,6 +2131,9 @@
           <t>0.3 (-0.17, 0.8)</t>
         </is>
       </c>
+      <c r="C12">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2008,6 +2146,9 @@
           <t>0.27 (-0.21, 0.73)</t>
         </is>
       </c>
+      <c r="C13">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2019,6 +2160,9 @@
         <is>
           <t>-0.09 (-0.45, 0.22)</t>
         </is>
+      </c>
+      <c r="C14">
+        <v>0.61</v>
       </c>
     </row>
   </sheetData>
@@ -2028,7 +2172,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2045,6 +2189,11 @@
           <t>Coefficient (95% interval)</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>p-value</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -2057,6 +2206,9 @@
           <t>1.02 (0.34, 1.67)</t>
         </is>
       </c>
+      <c r="C2">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2069,6 +2221,9 @@
           <t>0.15 (-0.41, 0.77)</t>
         </is>
       </c>
+      <c r="C3">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2081,6 +2236,9 @@
           <t>-0.23 (-0.79, 0.29)</t>
         </is>
       </c>
+      <c r="C4">
+        <v>0.39</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -2093,6 +2251,9 @@
           <t>-0.53 (-1.07, -0.05)</t>
         </is>
       </c>
+      <c r="C5">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2105,6 +2266,9 @@
           <t>0.24 (0.03, 0.46)</t>
         </is>
       </c>
+      <c r="C6">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2117,6 +2281,9 @@
           <t>0.01 (-0.22, 0.22)</t>
         </is>
       </c>
+      <c r="C7">
+        <v>0.9399999999999999</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2129,6 +2296,9 @@
           <t>-0.19 (-0.55, 0.19)</t>
         </is>
       </c>
+      <c r="C8">
+        <v>0.29</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2141,6 +2311,9 @@
           <t>-0.28 (-0.58, 0.05)</t>
         </is>
       </c>
+      <c r="C9">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2153,6 +2326,9 @@
           <t>0.03 (-0.2, 0.27)</t>
         </is>
       </c>
+      <c r="C10">
+        <v>0.82</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2165,6 +2341,9 @@
           <t>-0.07 (-0.35, 0.16)</t>
         </is>
       </c>
+      <c r="C11">
+        <v>0.5600000000000001</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2177,6 +2356,9 @@
           <t>0.28 (-0.18, 0.74)</t>
         </is>
       </c>
+      <c r="C12">
+        <v>0.24</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2189,6 +2371,9 @@
           <t>0.24 (-0.18, 0.71)</t>
         </is>
       </c>
+      <c r="C13">
+        <v>0.31</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2200,6 +2385,9 @@
         <is>
           <t>-0.09 (-0.41, 0.3)</t>
         </is>
+      </c>
+      <c r="C14">
+        <v>0.61</v>
       </c>
     </row>
   </sheetData>

--- a/output_tables.xlsx
+++ b/output_tables.xlsx
@@ -2172,7 +2172,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2181,17 +2181,82 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Strategy</t>
+          <t>Cumulative number strategies</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Coefficient (95% interval)</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>p-value</t>
+          <t>0.1_Coefficient (95% CI)</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>0.1_p-value</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>0.2_Coefficient (95% CI)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>0.2_p-value</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>0.5_Coefficient (95% CI)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>0.5_p-value</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>0.6_Coefficient (95% CI)</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>0.6_p-value</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>0.7_Coefficient (95% CI)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>0.7_p-value</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>0.8_Coefficient (95% CI)</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>0.8_p-value</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>1_Coefficient (95% CI)</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>1_p-value</t>
         </is>
       </c>
     </row>
@@ -2203,56 +2268,268 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1.02 (0.34, 1.67)</t>
-        </is>
-      </c>
-      <c r="C2">
+          <t>(Intercept)</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>1.02 (0.31, 1.74)</t>
+        </is>
+      </c>
+      <c r="D2">
         <v>0.05</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0.97 (0.25, 1.73)</t>
+        </is>
+      </c>
+      <c r="F2">
+        <v>0.06</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.98 (0.21, 1.65)</t>
+        </is>
+      </c>
+      <c r="H2">
+        <v>0.06</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>0.94 (0.18, 1.62)</t>
+        </is>
+      </c>
+      <c r="J2">
+        <v>0.06</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>0.92 (0.21, 1.66)</t>
+        </is>
+      </c>
+      <c r="L2">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>0.94 (0.14, 1.76)</t>
+        </is>
+      </c>
+      <c r="N2">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>0.96 (0.13, 1.73)</t>
+        </is>
+      </c>
+      <c r="P2">
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>One strategy</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.15 (-0.41, 0.77)</t>
-        </is>
-      </c>
-      <c r="C3">
+          <t>ss1</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0.15 (-0.53, 0.76)</t>
+        </is>
+      </c>
+      <c r="D3">
         <v>0.6</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>1.06 (0.34, 1.77)</t>
+        </is>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.28 (0.43, 2.21)</t>
+        </is>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>1.22 (0.42, 2.05)</t>
+        </is>
+      </c>
+      <c r="J3">
+        <v>0.01</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>1.23 (0.37, 2.22)</t>
+        </is>
+      </c>
+      <c r="L3">
+        <v>0.01</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>1.25 (0.38, 2.21)</t>
+        </is>
+      </c>
+      <c r="N3">
+        <v>0.01</v>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>1.16 (0.2, 2.21)</t>
+        </is>
+      </c>
+      <c r="P3">
+        <v>0.03</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Two strategies</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>-0.23 (-0.79, 0.29)</t>
-        </is>
-      </c>
-      <c r="C4">
+          <t>ss2</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>-0.23 (-0.77, 0.31)</t>
+        </is>
+      </c>
+      <c r="D4">
         <v>0.39</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>-0.2 (-0.85, 0.37)</t>
+        </is>
+      </c>
+      <c r="F4">
+        <v>0.52</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>-0.04 (-0.72, 0.62)</t>
+        </is>
+      </c>
+      <c r="H4">
+        <v>0.92</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>-0.07 (-0.83, 0.78)</t>
+        </is>
+      </c>
+      <c r="J4">
+        <v>0.86</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>-0.26 (-1.12, 0.57)</t>
+        </is>
+      </c>
+      <c r="L4">
+        <v>0.53</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>0.01 (-0.8, 0.81)</t>
+        </is>
+      </c>
+      <c r="N4">
+        <v>0.98</v>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0.13 (-0.63, 0.98)</t>
+        </is>
+      </c>
+      <c r="P4">
+        <v>0.75</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Three strategies</t>
+          <t>3</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>-0.53 (-1.07, -0.05)</t>
-        </is>
-      </c>
-      <c r="C5">
+          <t>ss3</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>-0.53 (-1.05, -0.02)</t>
+        </is>
+      </c>
+      <c r="D5">
         <v>0.04</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>-0.12 (-0.68, 0.39)</t>
+        </is>
+      </c>
+      <c r="F5">
+        <v>0.68</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>-0.22 (-0.78, 0.37)</t>
+        </is>
+      </c>
+      <c r="H5">
+        <v>0.45</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>0.12 (-0.5, 0.73)</t>
+        </is>
+      </c>
+      <c r="J5">
+        <v>0.71</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>0.01 (-0.75, 0.68)</t>
+        </is>
+      </c>
+      <c r="L5">
+        <v>0.99</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>-0.26 (-1.02, 0.5)</t>
+        </is>
+      </c>
+      <c r="N5">
+        <v>0.49</v>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>-0.24 (-1.11, 0.52)</t>
+        </is>
+      </c>
+      <c r="P5">
+        <v>0.53</v>
       </c>
     </row>
     <row r="6">
@@ -2263,11 +2540,64 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>percenttwoormoreraces</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>0.24 (0.03, 0.46)</t>
         </is>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>0.03</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0.24 (0, 0.46)</t>
+        </is>
+      </c>
+      <c r="F6">
+        <v>0.03</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.25 (0.06, 0.48)</t>
+        </is>
+      </c>
+      <c r="H6">
+        <v>0.02</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>0.25 (0.06, 0.45)</t>
+        </is>
+      </c>
+      <c r="J6">
+        <v>0.03</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>0.25 (0.06, 0.46)</t>
+        </is>
+      </c>
+      <c r="L6">
+        <v>0.03</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>0.26 (0.03, 0.49)</t>
+        </is>
+      </c>
+      <c r="N6">
+        <v>0.02</v>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0.26 (0.05, 0.47)</t>
+        </is>
+      </c>
+      <c r="P6">
+        <v>0.02</v>
       </c>
     </row>
     <row r="7">
@@ -2278,11 +2608,64 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0.01 (-0.22, 0.22)</t>
-        </is>
-      </c>
-      <c r="C7">
+          <t>percentasian</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0.01 (-0.2, 0.22)</t>
+        </is>
+      </c>
+      <c r="D7">
         <v>0.9399999999999999</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0.04 (-0.16, 0.27)</t>
+        </is>
+      </c>
+      <c r="F7">
+        <v>0.68</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.04 (-0.19, 0.23)</t>
+        </is>
+      </c>
+      <c r="H7">
+        <v>0.7</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>0.03 (-0.18, 0.23)</t>
+        </is>
+      </c>
+      <c r="J7">
+        <v>0.76</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>0.05 (-0.17, 0.25)</t>
+        </is>
+      </c>
+      <c r="L7">
+        <v>0.65</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>0.05 (-0.14, 0.26)</t>
+        </is>
+      </c>
+      <c r="N7">
+        <v>0.63</v>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>0.05 (-0.14, 0.24)</t>
+        </is>
+      </c>
+      <c r="P7">
+        <v>0.63</v>
       </c>
     </row>
     <row r="8">
@@ -2293,11 +2676,64 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>-0.19 (-0.55, 0.19)</t>
-        </is>
-      </c>
-      <c r="C8">
+          <t>percentwhite</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>-0.19 (-0.57, 0.15)</t>
+        </is>
+      </c>
+      <c r="D8">
         <v>0.29</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>-0.16 (-0.51, 0.23)</t>
+        </is>
+      </c>
+      <c r="F8">
+        <v>0.39</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>-0.16 (-0.57, 0.22)</t>
+        </is>
+      </c>
+      <c r="H8">
+        <v>0.38</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>-0.19 (-0.56, 0.19)</t>
+        </is>
+      </c>
+      <c r="J8">
+        <v>0.3</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>-0.15 (-0.49, 0.22)</t>
+        </is>
+      </c>
+      <c r="L8">
+        <v>0.43</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>-0.16 (-0.55, 0.19)</t>
+        </is>
+      </c>
+      <c r="N8">
+        <v>0.37</v>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>-0.17 (-0.51, 0.19)</t>
+        </is>
+      </c>
+      <c r="P8">
+        <v>0.35</v>
       </c>
     </row>
     <row r="9">
@@ -2308,11 +2744,64 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>-0.28 (-0.58, 0.05)</t>
-        </is>
-      </c>
-      <c r="C9">
+          <t>percentfreereducedlunch</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>-0.28 (-0.57, 0.06)</t>
+        </is>
+      </c>
+      <c r="D9">
         <v>0.08</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>-0.22 (-0.54, 0.08)</t>
+        </is>
+      </c>
+      <c r="F9">
+        <v>0.17</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>-0.23 (-0.55, 0.09)</t>
+        </is>
+      </c>
+      <c r="H9">
+        <v>0.14</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>-0.26 (-0.57, 0.06)</t>
+        </is>
+      </c>
+      <c r="J9">
+        <v>0.1</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>-0.24 (-0.52, 0.1)</t>
+        </is>
+      </c>
+      <c r="L9">
+        <v>0.14</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>-0.23 (-0.55, 0.06)</t>
+        </is>
+      </c>
+      <c r="N9">
+        <v>0.14</v>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>-0.24 (-0.54, 0.07)</t>
+        </is>
+      </c>
+      <c r="P9">
+        <v>0.14</v>
       </c>
     </row>
     <row r="10">
@@ -2323,11 +2812,64 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0.03 (-0.2, 0.27)</t>
-        </is>
-      </c>
-      <c r="C10">
+          <t>rplthemes</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0.03 (-0.23, 0.25)</t>
+        </is>
+      </c>
+      <c r="D10">
         <v>0.82</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0 (-0.23, 0.25)</t>
+        </is>
+      </c>
+      <c r="F10">
+        <v>0.99</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.02 (-0.21, 0.26)</t>
+        </is>
+      </c>
+      <c r="H10">
+        <v>0.9</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>0.02 (-0.25, 0.27)</t>
+        </is>
+      </c>
+      <c r="J10">
+        <v>0.84</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>0.04 (-0.21, 0.3)</t>
+        </is>
+      </c>
+      <c r="L10">
+        <v>0.76</v>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>0.05 (-0.18, 0.28)</t>
+        </is>
+      </c>
+      <c r="N10">
+        <v>0.66</v>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>0.02 (-0.19, 0.25)</t>
+        </is>
+      </c>
+      <c r="P10">
+        <v>0.85</v>
       </c>
     </row>
     <row r="11">
@@ -2338,11 +2880,64 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>-0.07 (-0.35, 0.16)</t>
-        </is>
-      </c>
-      <c r="C11">
+          <t>percentblackorafricanamerican</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>-0.07 (-0.34, 0.17)</t>
+        </is>
+      </c>
+      <c r="D11">
         <v>0.5600000000000001</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>-0.03 (-0.29, 0.21)</t>
+        </is>
+      </c>
+      <c r="F11">
+        <v>0.79</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>-0.05 (-0.32, 0.22)</t>
+        </is>
+      </c>
+      <c r="H11">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>-0.04 (-0.27, 0.22)</t>
+        </is>
+      </c>
+      <c r="J11">
+        <v>0.74</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>-0.03 (-0.28, 0.24)</t>
+        </is>
+      </c>
+      <c r="L11">
+        <v>0.85</v>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>-0.07 (-0.31, 0.16)</t>
+        </is>
+      </c>
+      <c r="N11">
+        <v>0.58</v>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>-0.06 (-0.32, 0.22)</t>
+        </is>
+      </c>
+      <c r="P11">
+        <v>0.66</v>
       </c>
     </row>
     <row r="12">
@@ -2353,11 +2948,64 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0.28 (-0.18, 0.74)</t>
-        </is>
-      </c>
-      <c r="C12">
+          <t>schoollevelHS</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0.28 (-0.18, 0.75)</t>
+        </is>
+      </c>
+      <c r="D12">
         <v>0.24</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0.23 (-0.25, 0.69)</t>
+        </is>
+      </c>
+      <c r="F12">
+        <v>0.33</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.29 (-0.22, 0.79)</t>
+        </is>
+      </c>
+      <c r="H12">
+        <v>0.23</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>0.29 (-0.17, 0.78)</t>
+        </is>
+      </c>
+      <c r="J12">
+        <v>0.24</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>0.35 (-0.13, 0.79)</t>
+        </is>
+      </c>
+      <c r="L12">
+        <v>0.15</v>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>0.39 (-0.14, 0.88)</t>
+        </is>
+      </c>
+      <c r="N12">
+        <v>0.11</v>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>0.33 (-0.14, 0.83)</t>
+        </is>
+      </c>
+      <c r="P12">
+        <v>0.19</v>
       </c>
     </row>
     <row r="13">
@@ -2368,11 +3016,64 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0.24 (-0.18, 0.71)</t>
-        </is>
-      </c>
-      <c r="C13">
+          <t>schoollevelMS</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0.24 (-0.24, 0.65)</t>
+        </is>
+      </c>
+      <c r="D13">
         <v>0.31</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0.19 (-0.23, 0.61)</t>
+        </is>
+      </c>
+      <c r="F13">
+        <v>0.41</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.27 (-0.16, 0.72)</t>
+        </is>
+      </c>
+      <c r="H13">
+        <v>0.25</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>0.25 (-0.22, 0.71)</t>
+        </is>
+      </c>
+      <c r="J13">
+        <v>0.3</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>0.31 (-0.12, 0.79)</t>
+        </is>
+      </c>
+      <c r="L13">
+        <v>0.19</v>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>0.28 (-0.18, 0.73)</t>
+        </is>
+      </c>
+      <c r="N13">
+        <v>0.23</v>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>0.25 (-0.23, 0.74)</t>
+        </is>
+      </c>
+      <c r="P13">
+        <v>0.3</v>
       </c>
     </row>
     <row r="14">
@@ -2383,11 +3084,344 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>-0.09 (-0.41, 0.3)</t>
-        </is>
-      </c>
-      <c r="C14">
+          <t>cntycaseschange</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>-0.09 (-0.47, 0.22)</t>
+        </is>
+      </c>
+      <c r="D14">
         <v>0.61</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>-0.13 (-0.49, 0.2)</t>
+        </is>
+      </c>
+      <c r="F14">
+        <v>0.43</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>-0.12 (-0.44, 0.19)</t>
+        </is>
+      </c>
+      <c r="H14">
+        <v>0.49</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>-0.08 (-0.41, 0.23)</t>
+        </is>
+      </c>
+      <c r="J14">
+        <v>0.63</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>-0.08 (-0.42, 0.25)</t>
+        </is>
+      </c>
+      <c r="L14">
+        <v>0.62</v>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>-0.06 (-0.37, 0.25)</t>
+        </is>
+      </c>
+      <c r="N14">
+        <v>0.7</v>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>-0.07 (-0.4, 0.29)</t>
+        </is>
+      </c>
+      <c r="P14">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>ss4</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>-0.24 (-0.85, 0.3)</t>
+        </is>
+      </c>
+      <c r="F15">
+        <v>0.41</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>-0.28 (-0.86, 0.3)</t>
+        </is>
+      </c>
+      <c r="H15">
+        <v>0.37</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>-0.25 (-0.8, 0.34)</t>
+        </is>
+      </c>
+      <c r="J15">
+        <v>0.41</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>0.1 (-0.51, 0.81)</t>
+        </is>
+      </c>
+      <c r="L15">
+        <v>0.76</v>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>0.46 (-0.38, 1.17)</t>
+        </is>
+      </c>
+      <c r="N15">
+        <v>0.24</v>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>0.46 (-0.29, 1.21)</t>
+        </is>
+      </c>
+      <c r="P15">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>ss5</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>-0.84 (-1.63, -0.15)</t>
+        </is>
+      </c>
+      <c r="F16">
+        <v>0.03</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>-0.1 (-0.78, 0.56)</t>
+        </is>
+      </c>
+      <c r="H16">
+        <v>0.77</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>-0.19 (-0.85, 0.5)</t>
+        </is>
+      </c>
+      <c r="J16">
+        <v>0.6</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>-0.26 (-0.94, 0.4)</t>
+        </is>
+      </c>
+      <c r="L16">
+        <v>0.44</v>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>-0.26 (-0.89, 0.36)</t>
+        </is>
+      </c>
+      <c r="N16">
+        <v>0.38</v>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>-0.19 (-0.83, 0.41)</t>
+        </is>
+      </c>
+      <c r="P16">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>ss6</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>-0.93 (-1.89, -0.12)</t>
+        </is>
+      </c>
+      <c r="H17">
+        <v>0.03</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>-0.4 (-1.13, 0.22)</t>
+        </is>
+      </c>
+      <c r="J17">
+        <v>0.26</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>-0.38 (-1.08, 0.27)</t>
+        </is>
+      </c>
+      <c r="L17">
+        <v>0.27</v>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>-0.67 (-1.4, 0.02)</t>
+        </is>
+      </c>
+      <c r="N17">
+        <v>0.06</v>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>-0.72 (-1.45, 0.04)</t>
+        </is>
+      </c>
+      <c r="P17">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>ss7</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>-0.76 (-1.78, 0.29)</t>
+        </is>
+      </c>
+      <c r="J18">
+        <v>0.15</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>-0.21 (-1.2, 0.69)</t>
+        </is>
+      </c>
+      <c r="L18">
+        <v>0.64</v>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>0.23 (-0.5, 0.93)</t>
+        </is>
+      </c>
+      <c r="N18">
+        <v>0.57</v>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>-0.12 (-0.86, 0.69)</t>
+        </is>
+      </c>
+      <c r="P18">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>ss8</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>-0.78 (-1.73, 0.21)</t>
+        </is>
+      </c>
+      <c r="L19">
+        <v>0.14</v>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>-0.82 (-1.78, 0.11)</t>
+        </is>
+      </c>
+      <c r="N19">
+        <v>0.09</v>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>-0.41 (-1.25, 0.49)</t>
+        </is>
+      </c>
+      <c r="P19">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>ss9</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>-0.4 (-2.34, 1.49)</t>
+        </is>
+      </c>
+      <c r="N20">
+        <v>0.68</v>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>-0.46 (-2.44, 1.35)</t>
+        </is>
+      </c>
+      <c r="P20">
+        <v>0.63</v>
       </c>
     </row>
   </sheetData>

--- a/output_tables.xlsx
+++ b/output_tables.xlsx
@@ -2172,7 +2172,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P20"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2219,1209 +2219,278 @@
           <t>0.5_p-value</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>0.6_Coefficient (95% CI)</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>0.6_p-value</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>0.7_Coefficient (95% CI)</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>0.7_p-value</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>0.8_Coefficient (95% CI)</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>0.8_p-value</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>1_Coefficient (95% CI)</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>1_p-value</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Intercept</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>(Intercept)</t>
+          <t>ss1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1.02 (0.31, 1.74)</t>
-        </is>
-      </c>
-      <c r="D2">
-        <v>0.05</v>
+          <t>0.15 (-0.39, 0.71)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.6</t>
+        </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.97 (0.25, 1.73)</t>
-        </is>
-      </c>
-      <c r="F2">
-        <v>0.06</v>
+          <t>1.06 (0.3, 1.85)</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.98 (0.21, 1.65)</t>
-        </is>
-      </c>
-      <c r="H2">
-        <v>0.06</v>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>0.94 (0.18, 1.62)</t>
-        </is>
-      </c>
-      <c r="J2">
-        <v>0.06</v>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>0.92 (0.21, 1.66)</t>
-        </is>
-      </c>
-      <c r="L2">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>0.94 (0.14, 1.76)</t>
-        </is>
-      </c>
-      <c r="N2">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>0.96 (0.13, 1.73)</t>
-        </is>
-      </c>
-      <c r="P2">
-        <v>0.07000000000000001</v>
+          <t>1.28 (0.33, 2.19)</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ss1</t>
+          <t>ss2</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.15 (-0.53, 0.76)</t>
-        </is>
-      </c>
-      <c r="D3">
-        <v>0.6</v>
+          <t>-0.23 (-0.76, 0.27)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.06 (0.34, 1.77)</t>
-        </is>
-      </c>
-      <c r="F3">
-        <v>0</v>
+          <t>-0.2 (-0.8, 0.36)</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.28 (0.43, 2.21)</t>
-        </is>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>1.22 (0.42, 2.05)</t>
-        </is>
-      </c>
-      <c r="J3">
-        <v>0.01</v>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>1.23 (0.37, 2.22)</t>
-        </is>
-      </c>
-      <c r="L3">
-        <v>0.01</v>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>1.25 (0.38, 2.21)</t>
-        </is>
-      </c>
-      <c r="N3">
-        <v>0.01</v>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>1.16 (0.2, 2.21)</t>
-        </is>
-      </c>
-      <c r="P3">
-        <v>0.03</v>
+          <t>-0.04 (-0.73, 0.68)</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ss2</t>
+          <t>ss3</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-0.23 (-0.77, 0.31)</t>
-        </is>
-      </c>
-      <c r="D4">
-        <v>0.39</v>
+          <t>-0.53 (-1.02, 0.05)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-0.2 (-0.85, 0.37)</t>
-        </is>
-      </c>
-      <c r="F4">
-        <v>0.52</v>
+          <t>-0.12 (-0.66, 0.43)</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>-0.04 (-0.72, 0.62)</t>
-        </is>
-      </c>
-      <c r="H4">
-        <v>0.92</v>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>-0.07 (-0.83, 0.78)</t>
-        </is>
-      </c>
-      <c r="J4">
-        <v>0.86</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>-0.26 (-1.12, 0.57)</t>
-        </is>
-      </c>
-      <c r="L4">
-        <v>0.53</v>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>0.01 (-0.8, 0.81)</t>
-        </is>
-      </c>
-      <c r="N4">
-        <v>0.98</v>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0.13 (-0.63, 0.98)</t>
-        </is>
-      </c>
-      <c r="P4">
-        <v>0.75</v>
+          <t>-0.22 (-0.8, 0.31)</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ss3</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>-0.53 (-1.05, -0.02)</t>
-        </is>
-      </c>
-      <c r="D5">
-        <v>0.04</v>
+          <t>ss4</t>
+        </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-0.12 (-0.68, 0.39)</t>
-        </is>
-      </c>
-      <c r="F5">
-        <v>0.68</v>
+          <t>-0.24 (-0.86, 0.31)</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>-0.22 (-0.78, 0.37)</t>
-        </is>
-      </c>
-      <c r="H5">
-        <v>0.45</v>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>0.12 (-0.5, 0.73)</t>
-        </is>
-      </c>
-      <c r="J5">
-        <v>0.71</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>0.01 (-0.75, 0.68)</t>
-        </is>
-      </c>
-      <c r="L5">
-        <v>0.99</v>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>-0.26 (-1.02, 0.5)</t>
-        </is>
-      </c>
-      <c r="N5">
-        <v>0.49</v>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>-0.24 (-1.11, 0.52)</t>
-        </is>
-      </c>
-      <c r="P5">
-        <v>0.53</v>
+          <t>-0.28 (-0.84, 0.28)</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Percent two or more races</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>percenttwoormoreraces</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>0.24 (0.03, 0.46)</t>
-        </is>
-      </c>
-      <c r="D6">
-        <v>0.03</v>
+          <t>ss5</t>
+        </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.24 (0, 0.46)</t>
-        </is>
-      </c>
-      <c r="F6">
-        <v>0.03</v>
+          <t>-0.84 (-1.58, -0.03)</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.25 (0.06, 0.48)</t>
-        </is>
-      </c>
-      <c r="H6">
-        <v>0.02</v>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>0.25 (0.06, 0.45)</t>
-        </is>
-      </c>
-      <c r="J6">
-        <v>0.03</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>0.25 (0.06, 0.46)</t>
-        </is>
-      </c>
-      <c r="L6">
-        <v>0.03</v>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>0.26 (0.03, 0.49)</t>
-        </is>
-      </c>
-      <c r="N6">
-        <v>0.02</v>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0.26 (0.05, 0.47)</t>
-        </is>
-      </c>
-      <c r="P6">
-        <v>0.02</v>
+          <t>-0.1 (-0.76, 0.54)</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Percent Asian</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>percentasian</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>0.01 (-0.2, 0.22)</t>
-        </is>
-      </c>
-      <c r="D7">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0.04 (-0.16, 0.27)</t>
-        </is>
-      </c>
-      <c r="F7">
-        <v>0.68</v>
+          <t>ss6</t>
+        </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.04 (-0.19, 0.23)</t>
-        </is>
-      </c>
-      <c r="H7">
-        <v>0.7</v>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>0.03 (-0.18, 0.23)</t>
-        </is>
-      </c>
-      <c r="J7">
-        <v>0.76</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>0.05 (-0.17, 0.25)</t>
-        </is>
-      </c>
-      <c r="L7">
-        <v>0.65</v>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>0.05 (-0.14, 0.26)</t>
-        </is>
-      </c>
-      <c r="N7">
-        <v>0.63</v>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>0.05 (-0.14, 0.24)</t>
-        </is>
-      </c>
-      <c r="P7">
-        <v>0.63</v>
+          <t>-0.93 (-1.74, -0.04)</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Percent White</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>percentwhite</t>
+          <t>aic</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>-0.19 (-0.57, 0.15)</t>
-        </is>
-      </c>
-      <c r="D8">
-        <v>0.29</v>
+          <t>1312.563</t>
+        </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>-0.16 (-0.51, 0.23)</t>
-        </is>
-      </c>
-      <c r="F8">
-        <v>0.39</v>
+          <t>1305.808</t>
+        </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>-0.16 (-0.57, 0.22)</t>
-        </is>
-      </c>
-      <c r="H8">
-        <v>0.38</v>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>-0.19 (-0.56, 0.19)</t>
-        </is>
-      </c>
-      <c r="J8">
-        <v>0.3</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>-0.15 (-0.49, 0.22)</t>
-        </is>
-      </c>
-      <c r="L8">
-        <v>0.43</v>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>-0.16 (-0.55, 0.19)</t>
-        </is>
-      </c>
-      <c r="N8">
-        <v>0.37</v>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>-0.17 (-0.51, 0.19)</t>
-        </is>
-      </c>
-      <c r="P8">
-        <v>0.35</v>
+          <t>1308.856</t>
+        </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Percent free and reduced lunch</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>percentfreereducedlunch</t>
+          <t>bic</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>-0.28 (-0.57, 0.06)</t>
-        </is>
-      </c>
-      <c r="D9">
-        <v>0.08</v>
+          <t>1373.397</t>
+        </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>-0.22 (-0.54, 0.08)</t>
-        </is>
-      </c>
-      <c r="F9">
-        <v>0.17</v>
+          <t>1374.246</t>
+        </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>-0.23 (-0.55, 0.09)</t>
-        </is>
-      </c>
-      <c r="H9">
-        <v>0.14</v>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>-0.26 (-0.57, 0.06)</t>
-        </is>
-      </c>
-      <c r="J9">
-        <v>0.1</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>-0.24 (-0.52, 0.1)</t>
-        </is>
-      </c>
-      <c r="L9">
-        <v>0.14</v>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>-0.23 (-0.55, 0.06)</t>
-        </is>
-      </c>
-      <c r="N9">
-        <v>0.14</v>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>-0.24 (-0.54, 0.07)</t>
-        </is>
-      </c>
-      <c r="P9">
-        <v>0.14</v>
+          <t>1381.096</t>
+        </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>SVI Overall Rank</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>rplthemes</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>0.03 (-0.23, 0.25)</t>
-        </is>
-      </c>
-      <c r="D10">
-        <v>0.82</v>
+          <t>pr_chisq</t>
+        </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0 (-0.23, 0.25)</t>
-        </is>
-      </c>
-      <c r="F10">
-        <v>0.99</v>
+          <t>0.005</t>
+        </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.02 (-0.21, 0.26)</t>
-        </is>
-      </c>
-      <c r="H10">
-        <v>0.9</v>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>0.02 (-0.25, 0.27)</t>
-        </is>
-      </c>
-      <c r="J10">
-        <v>0.84</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>0.04 (-0.21, 0.3)</t>
-        </is>
-      </c>
-      <c r="L10">
-        <v>0.76</v>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>0.05 (-0.18, 0.28)</t>
-        </is>
-      </c>
-      <c r="N10">
-        <v>0.66</v>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>0.02 (-0.19, 0.25)</t>
-        </is>
-      </c>
-      <c r="P10">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Percent Black or African American</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>percentblackorafricanamerican</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>-0.07 (-0.34, 0.17)</t>
-        </is>
-      </c>
-      <c r="D11">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>-0.03 (-0.29, 0.21)</t>
-        </is>
-      </c>
-      <c r="F11">
-        <v>0.79</v>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>-0.05 (-0.32, 0.22)</t>
-        </is>
-      </c>
-      <c r="H11">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>-0.04 (-0.27, 0.22)</t>
-        </is>
-      </c>
-      <c r="J11">
-        <v>0.74</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>-0.03 (-0.28, 0.24)</t>
-        </is>
-      </c>
-      <c r="L11">
-        <v>0.85</v>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>-0.07 (-0.31, 0.16)</t>
-        </is>
-      </c>
-      <c r="N11">
-        <v>0.58</v>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>-0.06 (-0.32, 0.22)</t>
-        </is>
-      </c>
-      <c r="P11">
-        <v>0.66</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>High school</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>schoollevelHS</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>0.28 (-0.18, 0.75)</t>
-        </is>
-      </c>
-      <c r="D12">
-        <v>0.24</v>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>0.23 (-0.25, 0.69)</t>
-        </is>
-      </c>
-      <c r="F12">
-        <v>0.33</v>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.29 (-0.22, 0.79)</t>
-        </is>
-      </c>
-      <c r="H12">
-        <v>0.23</v>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>0.29 (-0.17, 0.78)</t>
-        </is>
-      </c>
-      <c r="J12">
-        <v>0.24</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>0.35 (-0.13, 0.79)</t>
-        </is>
-      </c>
-      <c r="L12">
-        <v>0.15</v>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>0.39 (-0.14, 0.88)</t>
-        </is>
-      </c>
-      <c r="N12">
-        <v>0.11</v>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>0.33 (-0.14, 0.83)</t>
-        </is>
-      </c>
-      <c r="P12">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Middle school</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>schoollevelMS</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>0.24 (-0.24, 0.65)</t>
-        </is>
-      </c>
-      <c r="D13">
-        <v>0.31</v>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0.19 (-0.23, 0.61)</t>
-        </is>
-      </c>
-      <c r="F13">
-        <v>0.41</v>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.27 (-0.16, 0.72)</t>
-        </is>
-      </c>
-      <c r="H13">
-        <v>0.25</v>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>0.25 (-0.22, 0.71)</t>
-        </is>
-      </c>
-      <c r="J13">
-        <v>0.3</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>0.31 (-0.12, 0.79)</t>
-        </is>
-      </c>
-      <c r="L13">
-        <v>0.19</v>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>0.28 (-0.18, 0.73)</t>
-        </is>
-      </c>
-      <c r="N13">
-        <v>0.23</v>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>0.25 (-0.23, 0.74)</t>
-        </is>
-      </c>
-      <c r="P13">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Change in county COVID-19 case rate</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>cntycaseschange</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>-0.09 (-0.47, 0.22)</t>
-        </is>
-      </c>
-      <c r="D14">
-        <v>0.61</v>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>-0.13 (-0.49, 0.2)</t>
-        </is>
-      </c>
-      <c r="F14">
-        <v>0.43</v>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>-0.12 (-0.44, 0.19)</t>
-        </is>
-      </c>
-      <c r="H14">
-        <v>0.49</v>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>-0.08 (-0.41, 0.23)</t>
-        </is>
-      </c>
-      <c r="J14">
-        <v>0.63</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>-0.08 (-0.42, 0.25)</t>
-        </is>
-      </c>
-      <c r="L14">
-        <v>0.62</v>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>-0.06 (-0.37, 0.25)</t>
-        </is>
-      </c>
-      <c r="N14">
-        <v>0.7</v>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>-0.07 (-0.4, 0.29)</t>
-        </is>
-      </c>
-      <c r="P14">
-        <v>0.67</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>ss4</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>-0.24 (-0.85, 0.3)</t>
-        </is>
-      </c>
-      <c r="F15">
-        <v>0.41</v>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>-0.28 (-0.86, 0.3)</t>
-        </is>
-      </c>
-      <c r="H15">
-        <v>0.37</v>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>-0.25 (-0.8, 0.34)</t>
-        </is>
-      </c>
-      <c r="J15">
-        <v>0.41</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>0.1 (-0.51, 0.81)</t>
-        </is>
-      </c>
-      <c r="L15">
-        <v>0.76</v>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>0.46 (-0.38, 1.17)</t>
-        </is>
-      </c>
-      <c r="N15">
-        <v>0.24</v>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>0.46 (-0.29, 1.21)</t>
-        </is>
-      </c>
-      <c r="P15">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>ss5</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>-0.84 (-1.63, -0.15)</t>
-        </is>
-      </c>
-      <c r="F16">
-        <v>0.03</v>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>-0.1 (-0.78, 0.56)</t>
-        </is>
-      </c>
-      <c r="H16">
-        <v>0.77</v>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>-0.19 (-0.85, 0.5)</t>
-        </is>
-      </c>
-      <c r="J16">
-        <v>0.6</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>-0.26 (-0.94, 0.4)</t>
-        </is>
-      </c>
-      <c r="L16">
-        <v>0.44</v>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>-0.26 (-0.89, 0.36)</t>
-        </is>
-      </c>
-      <c r="N16">
-        <v>0.38</v>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>-0.19 (-0.83, 0.41)</t>
-        </is>
-      </c>
-      <c r="P16">
-        <v>0.55</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>ss6</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>-0.93 (-1.89, -0.12)</t>
-        </is>
-      </c>
-      <c r="H17">
-        <v>0.03</v>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>-0.4 (-1.13, 0.22)</t>
-        </is>
-      </c>
-      <c r="J17">
-        <v>0.26</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>-0.38 (-1.08, 0.27)</t>
-        </is>
-      </c>
-      <c r="L17">
-        <v>0.27</v>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>-0.67 (-1.4, 0.02)</t>
-        </is>
-      </c>
-      <c r="N17">
-        <v>0.06</v>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>-0.72 (-1.45, 0.04)</t>
-        </is>
-      </c>
-      <c r="P17">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>ss7</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>-0.76 (-1.78, 0.29)</t>
-        </is>
-      </c>
-      <c r="J18">
-        <v>0.15</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>-0.21 (-1.2, 0.69)</t>
-        </is>
-      </c>
-      <c r="L18">
-        <v>0.64</v>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>0.23 (-0.5, 0.93)</t>
-        </is>
-      </c>
-      <c r="N18">
-        <v>0.57</v>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>-0.12 (-0.86, 0.69)</t>
-        </is>
-      </c>
-      <c r="P18">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>ss8</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>-0.78 (-1.73, 0.21)</t>
-        </is>
-      </c>
-      <c r="L19">
-        <v>0.14</v>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>-0.82 (-1.78, 0.11)</t>
-        </is>
-      </c>
-      <c r="N19">
-        <v>0.09</v>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>-0.41 (-1.25, 0.49)</t>
-        </is>
-      </c>
-      <c r="P19">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>ss9</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>-0.4 (-2.34, 1.49)</t>
-        </is>
-      </c>
-      <c r="N20">
-        <v>0.68</v>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>-0.46 (-2.44, 1.35)</t>
-        </is>
-      </c>
-      <c r="P20">
-        <v>0.63</v>
+          <t>1</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/output_tables.xlsx
+++ b/output_tables.xlsx
@@ -2172,7 +2172,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2211,12 +2211,12 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>0.5_Coefficient (95% CI)</t>
+          <t>final_Coefficient (95% CI)</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>0.5_p-value</t>
+          <t>final_p-value</t>
         </is>
       </c>
     </row>
@@ -2233,7 +2233,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.15 (-0.39, 0.71)</t>
+          <t>0.15 (-0.38, 0.69)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -2243,20 +2243,10 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.06 (0.3, 1.85)</t>
+          <t>1.06 (0.34, 1.84)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.28 (0.33, 2.19)</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2275,7 +2265,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-0.23 (-0.76, 0.27)</t>
+          <t>-0.23 (-0.79, 0.33)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -2285,22 +2275,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-0.2 (-0.8, 0.36)</t>
+          <t>-0.2 (-0.82, 0.37)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
           <t>0.52</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>-0.04 (-0.73, 0.68)</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>0.92</t>
         </is>
       </c>
     </row>
@@ -2317,7 +2297,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-0.53 (-1.02, 0.05)</t>
+          <t>-0.53 (-1.06, 0)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -2327,7 +2307,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-0.12 (-0.66, 0.43)</t>
+          <t>-0.12 (-0.65, 0.43)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -2337,12 +2317,12 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>-0.22 (-0.8, 0.31)</t>
+          <t>-0.32 (-0.87, 0.26)</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>0.26</t>
         </is>
       </c>
     </row>
@@ -2359,22 +2339,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-0.24 (-0.86, 0.31)</t>
+          <t>-0.24 (-0.79, 0.32)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
           <t>0.41</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>-0.28 (-0.84, 0.28)</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>0.37</t>
         </is>
       </c>
     </row>
@@ -2391,7 +2361,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-0.84 (-1.58, -0.03)</t>
+          <t>-0.84 (-1.57, -0.09)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -2401,95 +2371,46 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>-0.1 (-0.76, 0.54)</t>
+          <t>-0.93 (-1.69, -0.11)</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>0.02</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>ss6</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>-0.93 (-1.74, -0.04)</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>0.03</t>
+          <t>aic</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1312.563</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>1305.808</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>aic</t>
+          <t>bic</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1312.563</t>
+          <t>1373.397</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1305.808</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>1308.856</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>bic</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>1373.397</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
           <t>1374.246</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>1381.096</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>pr_chisq</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0.005</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>1</t>
         </is>
       </c>
     </row>

--- a/output_tables.xlsx
+++ b/output_tables.xlsx
@@ -394,12 +394,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>342 (-6.25, 7.81)</t>
+          <t>502 (-6.25, 8.75)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1.16 (1.87)</t>
+          <t>1.33 (2.07)</t>
         </is>
       </c>
     </row>
@@ -411,17 +411,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>342 (-13.67, 14747.43)</t>
+          <t>502 (-27.71, 14747.43)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>826.27 (2375.13)</t>
+          <t>1536.05 (3303.78)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.004 (0.937)</t>
+          <t>0.186 (0)</t>
         </is>
       </c>
     </row>
@@ -433,17 +433,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>338 (0, 98.7)</t>
+          <t>498 (0, 98.7)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1.64 (9.21)</t>
+          <t>1.47 (8.18)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>-0.046 (0.401)</t>
+          <t>-0.041 (0.356)</t>
         </is>
       </c>
     </row>
@@ -455,17 +455,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>338 (0, 56)</t>
+          <t>498 (0, 75.8)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>4.04 (7.73)</t>
+          <t>4.77 (9.35)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.017 (0.754)</t>
+          <t>0.134 (0.003)</t>
         </is>
       </c>
     </row>
@@ -477,17 +477,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>338 (0, 99.5)</t>
+          <t>498 (0, 100)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>13.31 (21.69)</t>
+          <t>15.04 (22.46)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.038 (0.489)</t>
+          <t>-0.038 (0.402)</t>
         </is>
       </c>
     </row>
@@ -499,17 +499,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>338 (0, 100)</t>
+          <t>498 (0, 100)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>24.97 (26.59)</t>
+          <t>30.02 (28.78)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.066 (0.229)</t>
+          <t>0.146 (0.001)</t>
         </is>
       </c>
     </row>
@@ -521,17 +521,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>338 (0, 9.7)</t>
+          <t>498 (0, 9.7)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.24 (0.7)</t>
+          <t>0.26 (0.7)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>-0.041 (0.453)</t>
+          <t>0.012 (0.793)</t>
         </is>
       </c>
     </row>
@@ -543,17 +543,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>338 (0, 2.6)</t>
+          <t>498 (0, 2.6)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.02 (0.17)</t>
+          <t>0.02 (0.14)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>-0.047 (0.386)</t>
+          <t>-0.046 (0.309)</t>
         </is>
       </c>
     </row>
@@ -565,17 +565,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>338 (0, 23.8)</t>
+          <t>498 (0, 23.8)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>3.86 (3.09)</t>
+          <t>3.66 (3.09)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>-0.004 (0.936)</t>
+          <t>-0.045 (0.32)</t>
         </is>
       </c>
     </row>
@@ -587,17 +587,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>338 (0, 100)</t>
+          <t>498 (0, 100)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>51.92 (32)</t>
+          <t>44.78 (32.8)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>-0.07 (0.202)</t>
+          <t>-0.126 (0.005)</t>
         </is>
       </c>
     </row>
@@ -609,17 +609,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>331 (0.4, 100)</t>
+          <t>490 (0.4, 100)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>51.31 (28.3)</t>
+          <t>54.29 (28.24)</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.027 (0.63)</t>
+          <t>0.066 (0.144)</t>
         </is>
       </c>
     </row>
@@ -631,17 +631,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>342 (0, 99.94)</t>
+          <t>502 (0, 99.94)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>51.31 (27.83)</t>
+          <t>54.71 (26.83)</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.068 (0.21)</t>
+          <t>0.113 (0.011)</t>
         </is>
       </c>
     </row>
@@ -653,12 +653,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>55 (-2.87, 4)</t>
+          <t>69 (-2.87, 4)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0.43 (1.33)</t>
+          <t>0.35 (1.32)</t>
         </is>
       </c>
     </row>
@@ -670,12 +670,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>94 (-2.93, 7.67)</t>
+          <t>130 (-3.93, 7.91)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>1.47 (2.02)</t>
+          <t>1.78 (2.22)</t>
         </is>
       </c>
     </row>
@@ -687,12 +687,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>120 (-6.25, 7.5)</t>
+          <t>199 (-6.25, 8.59)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1.68 (2.06)</t>
+          <t>1.62 (2.07)</t>
         </is>
       </c>
     </row>
@@ -704,12 +704,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>73 (-1.16, 7.81)</t>
+          <t>104 (-2.89, 8.75)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0.46 (1.24)</t>
+          <t>0.87 (1.99)</t>
         </is>
       </c>
     </row>
@@ -721,12 +721,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>83 (-2.6, 6.74)</t>
+          <t>167 (-3.93, 8.75)</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1.06 (1.78)</t>
+          <t>1.65 (2.3)</t>
         </is>
       </c>
     </row>
@@ -738,12 +738,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>92 (-6.25, 7.5)</t>
+          <t>112 (-6.25, 7.5)</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>1.17 (2)</t>
+          <t>1.04 (1.92)</t>
         </is>
       </c>
     </row>
@@ -755,12 +755,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>119 (-2.93, 7.81)</t>
+          <t>169 (-2.93, 8.59)</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1.3 (1.93)</t>
+          <t>1.3 (1.96)</t>
         </is>
       </c>
     </row>
@@ -772,12 +772,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>48 (-2.87, 5.17)</t>
+          <t>54 (-2.87, 7.3)</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0.97 (1.65)</t>
+          <t>1.05 (1.84)</t>
         </is>
       </c>
     </row>
@@ -848,23 +848,23 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>342 (0, 1)</t>
+          <t>502 (0, 1)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.12 (0.32)</t>
+          <t>0.07 (0.26)</t>
         </is>
       </c>
       <c r="D2">
-        <v>1.193</v>
+        <v>1.335</v>
       </c>
       <c r="E2">
-        <v>0.91</v>
+        <v>1.293</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.283 (0.276)</t>
+          <t>0.042 (0.904)</t>
         </is>
       </c>
     </row>
@@ -876,23 +876,23 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>342 (0, 1)</t>
+          <t>502 (0, 1)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.26 (0.44)</t>
+          <t>0.12 (0.32)</t>
         </is>
       </c>
       <c r="D3">
-        <v>1.217</v>
+        <v>1.286</v>
       </c>
       <c r="E3">
-        <v>0.997</v>
+        <v>1.666</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.22 (0.358)</t>
+          <t>-0.379 (0.213)</t>
         </is>
       </c>
     </row>
@@ -904,23 +904,23 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>342 (0, 1)</t>
+          <t>502 (0, 1)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.26 (0.44)</t>
+          <t>0.13 (0.33)</t>
         </is>
       </c>
       <c r="D4">
-        <v>1.261</v>
+        <v>1.363</v>
       </c>
       <c r="E4">
-        <v>0.878</v>
+        <v>1.117</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.383 (0.08)</t>
+          <t>0.246 (0.357)</t>
         </is>
       </c>
     </row>
@@ -932,23 +932,23 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>342 (0, 1)</t>
+          <t>502 (0, 1)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.15 (0.35)</t>
+          <t>0.12 (0.32)</t>
         </is>
       </c>
       <c r="D5">
-        <v>1.194</v>
+        <v>1.293</v>
       </c>
       <c r="E5">
-        <v>0.958</v>
+        <v>1.626</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.236 (0.454)</t>
+          <t>-0.332 (0.293)</t>
         </is>
       </c>
     </row>
@@ -960,23 +960,23 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>342 (0, 1)</t>
+          <t>502 (0, 1)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.41 (0.49)</t>
+          <t>0.29 (0.46)</t>
         </is>
       </c>
       <c r="D6">
-        <v>1.257</v>
+        <v>1.202</v>
       </c>
       <c r="E6">
-        <v>1.018</v>
+        <v>1.642</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.24 (0.244)</t>
+          <t>-0.439 (0.035)</t>
         </is>
       </c>
     </row>
@@ -988,23 +988,23 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>342 (0, 1)</t>
+          <t>502 (0, 1)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.3 (0.46)</t>
+          <t>0.21 (0.4)</t>
         </is>
       </c>
       <c r="D7">
-        <v>1.216</v>
+        <v>1.312</v>
       </c>
       <c r="E7">
-        <v>1.032</v>
+        <v>1.409</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0.184 (0.383)</t>
+          <t>-0.097 (0.683)</t>
         </is>
       </c>
     </row>
@@ -1016,23 +1016,23 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>342 (0, 1)</t>
+          <t>502 (0, 1)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.32 (0.47)</t>
+          <t>0.2 (0.4)</t>
         </is>
       </c>
       <c r="D8">
-        <v>1.236</v>
+        <v>1.195</v>
       </c>
       <c r="E8">
-        <v>0.997</v>
+        <v>1.874</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0.239 (0.27)</t>
+          <t>-0.679 (0.006)</t>
         </is>
       </c>
     </row>
@@ -1044,23 +1044,23 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>342 (0, 1)</t>
+          <t>502 (0, 1)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.25 (0.44)</t>
+          <t>0.17 (0.38)</t>
         </is>
       </c>
       <c r="D9">
-        <v>1.151</v>
+        <v>1.23</v>
       </c>
       <c r="E9">
-        <v>1.186</v>
+        <v>1.829</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>-0.035 (0.875)</t>
+          <t>-0.599 (0.027)</t>
         </is>
       </c>
     </row>
@@ -1072,23 +1072,23 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>342 (0, 1)</t>
+          <t>502 (0, 1)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.04 (0.21)</t>
+          <t>0.02 (0.15)</t>
         </is>
       </c>
       <c r="D10">
-        <v>1.176</v>
+        <v>1.342</v>
       </c>
       <c r="E10">
-        <v>0.802</v>
+        <v>0.925</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0.375 (0.4)</t>
+          <t>0.417 (0.31)</t>
         </is>
       </c>
     </row>
@@ -1100,23 +1100,23 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>342 (0, 1)</t>
+          <t>502 (0, 1)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.33 (0.47)</t>
+          <t>0.19 (0.39)</t>
         </is>
       </c>
       <c r="D11">
-        <v>1.316</v>
+        <v>1.231</v>
       </c>
       <c r="E11">
-        <v>0.84</v>
+        <v>1.759</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0.476 (0.019)</t>
+          <t>-0.529 (0.035)</t>
         </is>
       </c>
     </row>
@@ -1148,7 +1148,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Region</t>
+          <t>State</t>
         </is>
       </c>
       <c r="B2">
@@ -1158,51 +1158,51 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>State</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="B3">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Percent two or more races</t>
+          <t>Percent Black or African American</t>
         </is>
       </c>
       <c r="B4">
-        <v>77</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Percent Asian</t>
+          <t>Change in county COVID-19 case rate</t>
         </is>
       </c>
       <c r="B5">
-        <v>43</v>
+        <v>55.00000000000001</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Percent White</t>
+          <t>Percent two or more races</t>
         </is>
       </c>
       <c r="B6">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Percent free and reduced lunch</t>
+          <t>Percent Asian</t>
         </is>
       </c>
       <c r="B7">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8">
@@ -1212,33 +1212,33 @@
         </is>
       </c>
       <c r="B8">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Percent Black or African American</t>
+          <t>Percent White</t>
         </is>
       </c>
       <c r="B9">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>School level</t>
+          <t>School enrollment</t>
         </is>
       </c>
       <c r="B10">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>School enrollment</t>
+          <t>Percent Hispanic or Latino</t>
         </is>
       </c>
       <c r="B11">
@@ -1248,21 +1248,21 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Percent Hispanic or Latino</t>
+          <t>School level</t>
         </is>
       </c>
       <c r="B12">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Change in county COVID-19 case rate</t>
+          <t>Locale</t>
         </is>
       </c>
       <c r="B13">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
@@ -1278,21 +1278,21 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Percent Native Hawaiian or other Pacific Islander</t>
+          <t>Percent free and reduced lunch</t>
         </is>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Locale</t>
+          <t>Percent Native Hawaiian or other Pacific Islander</t>
         </is>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17">
@@ -1333,7 +1333,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>HVAC systems</t>
+          <t>Cleaning</t>
         </is>
       </c>
       <c r="B2">
@@ -1343,21 +1343,21 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Contact tracing</t>
+          <t>Physical distancing</t>
         </is>
       </c>
       <c r="B3">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Cleaning</t>
+          <t>Quarantining</t>
         </is>
       </c>
       <c r="B4">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5">
@@ -1367,37 +1367,37 @@
         </is>
       </c>
       <c r="B5">
-        <v>89</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Universal masking requirements</t>
+          <t>Contact tracing</t>
         </is>
       </c>
       <c r="B6">
-        <v>66</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Physical distancing</t>
+          <t>Universal masking requirements</t>
         </is>
       </c>
       <c r="B7">
-        <v>12</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Vaccination offered</t>
+          <t>HVAC systems</t>
         </is>
       </c>
       <c r="B8">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9">
@@ -1407,27 +1407,27 @@
         </is>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>7.000000000000001</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>HEPA filters</t>
+          <t>Vaccination offered</t>
         </is>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Quarantining</t>
+          <t>HEPA filters</t>
         </is>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1468,11 +1468,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>-0.08 (-0.69, 0.53)</t>
+          <t>-0.02 (-0.69, 0.61)</t>
         </is>
       </c>
       <c r="C2">
-        <v>0.79</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -1483,11 +1483,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>-0.13 (-0.54, 0.27)</t>
+          <t>0.22 (-0.28, 0.76)</t>
         </is>
       </c>
       <c r="C3">
-        <v>0.5600000000000001</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="4">
@@ -1498,11 +1498,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>-0.38 (-0.83, 0.03)</t>
+          <t>-0.04 (-0.52, 0.48)</t>
         </is>
       </c>
       <c r="C4">
-        <v>0.07000000000000001</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="5">
@@ -1513,11 +1513,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>-0.35 (-0.84, 0.2)</t>
+          <t>0.35 (-0.22, 0.89)</t>
         </is>
       </c>
       <c r="C5">
-        <v>0.18</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="6">
@@ -1528,11 +1528,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>-0.33 (-0.71, 0.03)</t>
+          <t>0.42 (0.03, 0.83)</t>
         </is>
       </c>
       <c r="C6">
-        <v>0.08</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="7">
@@ -1543,7 +1543,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>-0.17 (-0.54, 0.22)</t>
+          <t>0.18 (-0.24, 0.6)</t>
         </is>
       </c>
       <c r="C7">
@@ -1558,11 +1558,11 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>-0.29 (-0.72, 0.08)</t>
+          <t>0.52 (0.09, 0.92)</t>
         </is>
       </c>
       <c r="C8">
-        <v>0.14</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="9">
@@ -1573,11 +1573,11 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>-0.09 (-0.53, 0.31)</t>
+          <t>0.46 (0.01, 0.92)</t>
         </is>
       </c>
       <c r="C9">
-        <v>0.67</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="10">
@@ -1588,7 +1588,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0.03 (-0.98, 0.96)</t>
+          <t>0.03 (-1.15, 1.11)</t>
         </is>
       </c>
       <c r="C10">
@@ -1603,7 +1603,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>-0.38 (-0.78, 0.02)</t>
+          <t>0.42 (-0.05, 0.82)</t>
         </is>
       </c>
       <c r="C11">
@@ -1648,11 +1648,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1.04 (0.32, 1.78)</t>
+          <t>1.04 (0.33, 1.82)</t>
         </is>
       </c>
       <c r="C2">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -1663,11 +1663,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.33 (-0.44, 1.1)</t>
+          <t>-0.28 (-1.12, 0.51)</t>
         </is>
       </c>
       <c r="C3">
-        <v>0.34</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="4">
@@ -1678,11 +1678,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.14 (-0.35, 0.68)</t>
+          <t>-0.26 (-1.07, 0.42)</t>
         </is>
       </c>
       <c r="C4">
-        <v>0.6</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="5">
@@ -1693,11 +1693,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>-0.28 (-0.84, 0.3)</t>
+          <t>-0.72 (-1.33, -0.03)</t>
         </is>
       </c>
       <c r="C5">
-        <v>0.32</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="6">
@@ -1708,11 +1708,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>-0.31 (-0.99, 0.36)</t>
+          <t>0.07 (-0.76, 0.82)</t>
         </is>
       </c>
       <c r="C6">
-        <v>0.32</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="7">
@@ -1723,11 +1723,11 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>-0.2 (-0.85, 0.47)</t>
+          <t>0.24 (-0.4, 0.84)</t>
         </is>
       </c>
       <c r="C7">
-        <v>0.54</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="8">
@@ -1738,11 +1738,11 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0.13 (-0.42, 0.69)</t>
+          <t>-0.19 (-0.77, 0.4)</t>
         </is>
       </c>
       <c r="C8">
-        <v>0.64</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="9">
@@ -1753,11 +1753,11 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>-0.06 (-0.7, 0.56)</t>
+          <t>0.58 (-0.07, 1.3)</t>
         </is>
       </c>
       <c r="C9">
-        <v>0.86</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="10">
@@ -1768,11 +1768,11 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0.33 (-0.23, 0.82)</t>
+          <t>0.32 (-0.25, 0.95)</t>
         </is>
       </c>
       <c r="C10">
-        <v>0.24</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="11">
@@ -1783,11 +1783,11 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0.25 (-0.6, 1.29)</t>
+          <t>0.05 (-1.29, 1.41)</t>
         </is>
       </c>
       <c r="C11">
-        <v>0.62</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="12">
@@ -1798,71 +1798,71 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>-0.4 (-1.01, 0.17)</t>
+          <t>0.32 (-0.36, 1)</t>
         </is>
       </c>
       <c r="C12">
-        <v>0.19</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Percent two or more races</t>
+          <t>Percent Black or African American</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0.24 (0.04, 0.46)</t>
+          <t>-0.27 (-0.8, 0.28)</t>
         </is>
       </c>
       <c r="C13">
-        <v>0.03</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Percent Asian</t>
+          <t>Change in county COVID-19 case rate</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0.01 (-0.21, 0.23)</t>
+          <t>0.18 (-0.12, 0.49)</t>
         </is>
       </c>
       <c r="C14">
-        <v>0.9399999999999999</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Percent White</t>
+          <t>Percent two or more races</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>-0.15 (-0.5, 0.26)</t>
+          <t>0.13 (-0.12, 0.34)</t>
         </is>
       </c>
       <c r="C15">
-        <v>0.42</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Percent free and reduced lunch</t>
+          <t>Percent Asian</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>-0.25 (-0.57, 0.1)</t>
+          <t>0.05 (-0.22, 0.31)</t>
         </is>
       </c>
       <c r="C16">
-        <v>0.13</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="17">
@@ -1873,71 +1873,71 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0.04 (-0.2, 0.28)</t>
+          <t>0.1 (-0.12, 0.3)</t>
         </is>
       </c>
       <c r="C17">
-        <v>0.76</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Percent Black or African American</t>
+          <t>Percent White</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>-0.07 (-0.35, 0.18)</t>
+          <t>-0.23 (-1.05, 0.6)</t>
         </is>
       </c>
       <c r="C18">
-        <v>0.59</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>High school</t>
+          <t>School enrollment</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0.31 (-0.15, 0.8)</t>
+          <t>0.02 (-0.16, 0.19)</t>
         </is>
       </c>
       <c r="C19">
-        <v>0.21</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Middle school</t>
+          <t>Percent Hispanic or Latino</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0.27 (-0.19, 0.72)</t>
+          <t>-0.06 (-0.81, 0.62)</t>
         </is>
       </c>
       <c r="C20">
-        <v>0.25</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Change in county COVID-19 case rate</t>
+          <t>Percent free and reduced lunch</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>-0.08 (-0.45, 0.3)</t>
+          <t>-0.2 (-0.51, 0.08)</t>
         </is>
       </c>
       <c r="C21">
-        <v>0.62</v>
+        <v>0.18</v>
       </c>
     </row>
   </sheetData>
@@ -1947,7 +1947,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1978,191 +1978,206 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1.07 (0.33, 1.76)</t>
+          <t>1.01 (0.32, 1.79)</t>
         </is>
       </c>
       <c r="C2">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Physical distancing</t>
+          <t>Staying home when sick</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>-0.2 (-0.73, 0.31)</t>
+          <t>0.1 (-0.5, 0.62)</t>
         </is>
       </c>
       <c r="C3">
-        <v>0.44</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Staying home when sick</t>
+          <t>Quarantining</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>-0.09 (-0.67, 0.39)</t>
+          <t>0.3 (-0.37, 0.91)</t>
         </is>
       </c>
       <c r="C4">
-        <v>0.73</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HVAC systems</t>
+          <t>Cleaning</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>-0.21 (-0.82, 0.36)</t>
+          <t>0.17 (-0.45, 0.74)</t>
         </is>
       </c>
       <c r="C5">
-        <v>0.43</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Percent two or more races</t>
+          <t>HVAC systems</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0.25 (0.04, 0.46)</t>
+          <t>0.09 (-0.5, 0.61)</t>
         </is>
       </c>
       <c r="C6">
-        <v>0.03</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Percent Asian</t>
+          <t>Percent Black or African American</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0.01 (-0.2, 0.21)</t>
+          <t>-0.29 (-0.9, 0.27)</t>
         </is>
       </c>
       <c r="C7">
-        <v>0.95</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Percent White</t>
+          <t>Change in county COVID-19 case rate</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>-0.19 (-0.52, 0.15)</t>
+          <t>0.21 (-0.11, 0.57)</t>
         </is>
       </c>
       <c r="C8">
-        <v>0.31</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Percent free and reduced lunch</t>
+          <t>Percent two or more races</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>-0.28 (-0.6, 0.03)</t>
+          <t>0.12 (-0.14, 0.37)</t>
         </is>
       </c>
       <c r="C9">
-        <v>0.08</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>SVI Overall Rank</t>
+          <t>Percent Asian</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0.03 (-0.18, 0.26)</t>
+          <t>0.04 (-0.22, 0.32)</t>
         </is>
       </c>
       <c r="C10">
-        <v>0.79</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Percent Black or African American</t>
+          <t>SVI Overall Rank</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>-0.08 (-0.33, 0.21)</t>
+          <t>0.08 (-0.16, 0.28)</t>
         </is>
       </c>
       <c r="C11">
-        <v>0.5600000000000001</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>High school</t>
+          <t>Percent White</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0.3 (-0.17, 0.8)</t>
+          <t>-0.26 (-1.14, 0.6)</t>
         </is>
       </c>
       <c r="C12">
-        <v>0.22</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Middle school</t>
+          <t>School enrollment</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0.27 (-0.21, 0.73)</t>
+          <t>0.01 (-0.14, 0.19)</t>
         </is>
       </c>
       <c r="C13">
-        <v>0.25</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Change in county COVID-19 case rate</t>
+          <t>Percent Hispanic or Latino</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>-0.09 (-0.45, 0.22)</t>
+          <t>-0.08 (-0.74, 0.6)</t>
         </is>
       </c>
       <c r="C14">
-        <v>0.61</v>
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Percent free and reduced lunch</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>-0.2 (-0.48, 0.09)</t>
+        </is>
+      </c>
+      <c r="C15">
+        <v>0.16</v>
       </c>
     </row>
   </sheetData>
@@ -2201,12 +2216,12 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>0.2_Coefficient (95% CI)</t>
+          <t>0.3_Coefficient (95% CI)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>0.2_p-value</t>
+          <t>0.3_p-value</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -2233,22 +2248,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.15 (-0.38, 0.69)</t>
+          <t>-0.21 (-0.82, 0.42)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.06 (0.34, 1.84)</t>
+          <t>-0.19 (-0.81, 0.46)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.55</t>
         </is>
       </c>
     </row>
@@ -2265,22 +2280,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-0.23 (-0.79, 0.33)</t>
+          <t>0.27 (-0.34, 0.97)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.39</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-0.2 (-0.82, 0.37)</t>
+          <t>0.17 (-0.62, 0.82)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>0.63</t>
         </is>
       </c>
     </row>
@@ -2297,32 +2312,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-0.53 (-1.06, 0)</t>
+          <t>0.47 (-0.14, 1.11)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-0.12 (-0.65, 0.43)</t>
+          <t>0.61 (-0.14, 1.22)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.68</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>-0.32 (-0.87, 0.26)</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0.26</t>
+          <t>0.07</t>
         </is>
       </c>
     </row>
@@ -2337,14 +2342,34 @@
           <t>ss4</t>
         </is>
       </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0.72 (0.09, 1.35)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-0.24 (-0.79, 0.32)</t>
+          <t>-0.11 (-0.9, 0.63)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>-0.1 (-1.18, 0.98)</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0.84</t>
         </is>
       </c>
     </row>
@@ -2361,22 +2386,22 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-0.84 (-1.57, -0.09)</t>
+          <t>1.09 (0.24, 1.88)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>-0.93 (-1.69, -0.11)</t>
+          <t>1.09 (0.18, 1.94)</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.01</t>
         </is>
       </c>
     </row>
@@ -2388,12 +2413,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1312.563</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>1305.808</t>
+          <t>2026.355</t>
         </is>
       </c>
     </row>
@@ -2405,12 +2425,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1373.397</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>1374.246</t>
+          <t>2097.66</t>
         </is>
       </c>
     </row>
